--- a/Gran Turismo 7 reward cars checklist.xlsx
+++ b/Gran Turismo 7 reward cars checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alex\Git\GT7-Farming-Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A67F53-1510-4A97-91A2-13694E371E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF791687-E683-4421-A35A-EEA2468D4535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12255" yWindow="1845" windowWidth="15000" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GT7 cars" sheetId="1" r:id="rId1"/>
@@ -2232,12 +2232,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AB998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2288,7 +2287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="b">
         <v>1</v>
       </c>
@@ -2314,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="b">
         <v>1</v>
       </c>
@@ -2340,7 +2339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="b">
         <v>1</v>
       </c>
@@ -2368,7 +2367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="b">
         <v>1</v>
       </c>
@@ -2394,7 +2393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="b">
         <v>1</v>
       </c>
@@ -2422,7 +2421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="b">
         <v>1</v>
       </c>
@@ -2450,7 +2449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="b">
         <v>1</v>
       </c>
@@ -2608,7 +2607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="b">
         <v>1</v>
       </c>
@@ -2632,7 +2631,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="b">
         <v>1</v>
       </c>
@@ -2656,7 +2655,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="b">
         <v>1</v>
       </c>
@@ -2682,7 +2681,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="b">
         <v>1</v>
       </c>
@@ -2730,7 +2729,7 @@
       <c r="I18" s="44"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="b">
         <v>1</v>
       </c>
@@ -2752,7 +2751,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="b">
         <v>1</v>
       </c>
@@ -2780,7 +2779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="b">
         <v>1</v>
       </c>
@@ -2806,7 +2805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="b">
         <v>1</v>
       </c>
@@ -2834,7 +2833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="b">
         <v>1</v>
       </c>
@@ -2862,7 +2861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="b">
         <v>1</v>
       </c>
@@ -2890,7 +2889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="b">
         <v>1</v>
       </c>
@@ -3168,7 +3167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="b">
         <v>1</v>
       </c>
@@ -3192,7 +3191,7 @@
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="b">
         <v>1</v>
       </c>
@@ -3216,7 +3215,7 @@
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="b">
         <v>1</v>
       </c>
@@ -3240,7 +3239,7 @@
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="b">
         <v>1</v>
       </c>
@@ -3412,7 +3411,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
     </row>
-    <row r="46" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="b">
         <v>1</v>
       </c>
@@ -3440,7 +3439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="b">
         <v>1</v>
       </c>
@@ -3524,7 +3523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="b">
         <v>1</v>
       </c>
@@ -3578,7 +3577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="b">
         <v>1</v>
       </c>
@@ -3606,7 +3605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="b">
         <v>1</v>
       </c>
@@ -3634,7 +3633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="b">
         <v>1</v>
       </c>
@@ -3716,7 +3715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="b">
         <v>1</v>
       </c>
@@ -3792,7 +3791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="b">
         <v>1</v>
       </c>
@@ -3820,7 +3819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="b">
         <v>1</v>
       </c>
@@ -3848,7 +3847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="b">
         <v>1</v>
       </c>
@@ -3876,7 +3875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="b">
         <v>1</v>
       </c>
@@ -3904,7 +3903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="b">
         <v>1</v>
       </c>
@@ -3930,7 +3929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="b">
         <v>1</v>
       </c>
@@ -3960,7 +3959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="b">
         <v>1</v>
       </c>
@@ -3986,7 +3985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="b">
         <v>1</v>
       </c>
@@ -4014,7 +4013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="b">
         <v>1</v>
       </c>
@@ -4040,7 +4039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="b">
         <v>1</v>
       </c>
@@ -4276,7 +4275,7 @@
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
     </row>
-    <row r="78" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="b">
         <v>1</v>
       </c>
@@ -4376,7 +4375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="b">
         <v>1</v>
       </c>
@@ -4404,7 +4403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="b">
         <v>1</v>
       </c>
@@ -4430,7 +4429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="b">
         <v>1</v>
       </c>
@@ -4458,7 +4457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="b">
         <v>1</v>
       </c>
@@ -4486,7 +4485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="b">
         <v>1</v>
       </c>
@@ -4512,7 +4511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="b">
         <v>1</v>
       </c>
@@ -4540,7 +4539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="b">
         <v>1</v>
       </c>
@@ -4570,7 +4569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="b">
         <v>1</v>
       </c>
@@ -4598,7 +4597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="b">
         <v>1</v>
       </c>
@@ -4622,7 +4621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="b">
         <v>1</v>
       </c>
@@ -4780,7 +4779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="b">
         <v>1</v>
       </c>
@@ -4880,7 +4879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="b">
         <v>1</v>
       </c>
@@ -4906,7 +4905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="b">
         <v>1</v>
       </c>
@@ -4958,7 +4957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="b">
         <v>1</v>
       </c>
@@ -5010,7 +5009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="b">
         <v>1</v>
       </c>
@@ -5034,7 +5033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="b">
         <v>1</v>
       </c>
@@ -5058,7 +5057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="b">
         <v>1</v>
       </c>
@@ -5082,7 +5081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="b">
         <v>1</v>
       </c>
@@ -5110,7 +5109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="b">
         <v>1</v>
       </c>
@@ -5136,7 +5135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="b">
         <v>1</v>
       </c>
@@ -5162,7 +5161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="b">
         <v>1</v>
       </c>
@@ -5188,7 +5187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="b">
         <v>1</v>
       </c>
@@ -5318,7 +5317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="b">
         <v>1</v>
       </c>
@@ -5346,7 +5345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="b">
         <v>1</v>
       </c>
@@ -5494,7 +5493,7 @@
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
     </row>
-    <row r="125" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="b">
         <v>1</v>
       </c>
@@ -5518,7 +5517,7 @@
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
     </row>
-    <row r="126" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="b">
         <v>1</v>
       </c>
@@ -5542,7 +5541,7 @@
       <c r="I126" s="9"/>
       <c r="J126" s="22"/>
     </row>
-    <row r="127" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="b">
         <v>1</v>
       </c>
@@ -5566,7 +5565,7 @@
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
     </row>
-    <row r="128" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="b">
         <v>1</v>
       </c>
@@ -5590,7 +5589,7 @@
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
     </row>
-    <row r="129" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="b">
         <v>1</v>
       </c>
@@ -5614,7 +5613,7 @@
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
     </row>
-    <row r="130" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="b">
         <v>1</v>
       </c>
@@ -5640,7 +5639,7 @@
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
     </row>
-    <row r="131" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="b">
         <v>1</v>
       </c>
@@ -5664,7 +5663,7 @@
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
     </row>
-    <row r="132" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="b">
         <v>1</v>
       </c>
@@ -5688,7 +5687,7 @@
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
     </row>
-    <row r="133" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="b">
         <v>1</v>
       </c>
@@ -5716,7 +5715,7 @@
       </c>
       <c r="J133" s="22"/>
     </row>
-    <row r="134" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="b">
         <v>1</v>
       </c>
@@ -5740,7 +5739,7 @@
       <c r="I134" s="9"/>
       <c r="J134" s="22"/>
     </row>
-    <row r="135" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="b">
         <v>1</v>
       </c>
@@ -5766,7 +5765,7 @@
       </c>
       <c r="J135" s="9"/>
     </row>
-    <row r="136" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="b">
         <v>1</v>
       </c>
@@ -5794,7 +5793,7 @@
       </c>
       <c r="J136" s="9"/>
     </row>
-    <row r="137" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="b">
         <v>1</v>
       </c>
@@ -5842,7 +5841,7 @@
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
     </row>
-    <row r="139" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="b">
         <v>1</v>
       </c>
@@ -5890,7 +5889,7 @@
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
     </row>
-    <row r="141" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="b">
         <v>1</v>
       </c>
@@ -5914,7 +5913,7 @@
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
     </row>
-    <row r="142" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="b">
         <v>1</v>
       </c>
@@ -5988,7 +5987,7 @@
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
     </row>
-    <row r="145" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="b">
         <v>1</v>
       </c>
@@ -6038,7 +6037,7 @@
       <c r="I146" s="9"/>
       <c r="J146" s="22"/>
     </row>
-    <row r="147" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="b">
         <v>1</v>
       </c>
@@ -6062,7 +6061,7 @@
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
     </row>
-    <row r="148" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="b">
         <v>1</v>
       </c>
@@ -6088,7 +6087,7 @@
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
     </row>
-    <row r="149" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="b">
         <v>1</v>
       </c>
@@ -6114,7 +6113,7 @@
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
     </row>
-    <row r="150" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="b">
         <v>1</v>
       </c>
@@ -6140,7 +6139,7 @@
       <c r="I150" s="9"/>
       <c r="J150" s="9"/>
     </row>
-    <row r="151" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="b">
         <v>1</v>
       </c>
@@ -6166,7 +6165,7 @@
       <c r="I151" s="9"/>
       <c r="J151" s="9"/>
     </row>
-    <row r="152" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="b">
         <v>1</v>
       </c>
@@ -6190,7 +6189,7 @@
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
     </row>
-    <row r="153" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="b">
         <v>1</v>
       </c>
@@ -6216,7 +6215,7 @@
       <c r="I153" s="9"/>
       <c r="J153" s="22"/>
     </row>
-    <row r="154" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="b">
         <v>1</v>
       </c>
@@ -6242,7 +6241,7 @@
       <c r="I154" s="9"/>
       <c r="J154" s="9"/>
     </row>
-    <row r="155" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="b">
         <v>1</v>
       </c>
@@ -6270,7 +6269,7 @@
       </c>
       <c r="J155" s="9"/>
     </row>
-    <row r="156" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="b">
         <v>1</v>
       </c>
@@ -6488,7 +6487,7 @@
       <c r="I164" s="9"/>
       <c r="J164" s="9"/>
     </row>
-    <row r="165" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="b">
         <v>1</v>
       </c>
@@ -6512,7 +6511,7 @@
       <c r="I165" s="9"/>
       <c r="J165" s="9"/>
     </row>
-    <row r="166" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="b">
         <v>1</v>
       </c>
@@ -6538,7 +6537,7 @@
       <c r="I166" s="9"/>
       <c r="J166" s="9"/>
     </row>
-    <row r="167" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="b">
         <v>1</v>
       </c>
@@ -6562,7 +6561,7 @@
       <c r="I167" s="9"/>
       <c r="J167" s="9"/>
     </row>
-    <row r="168" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="b">
         <v>1</v>
       </c>
@@ -6726,7 +6725,7 @@
       <c r="I174" s="9"/>
       <c r="J174" s="9"/>
     </row>
-    <row r="175" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="b">
         <v>1</v>
       </c>
@@ -6750,7 +6749,7 @@
       <c r="I175" s="9"/>
       <c r="J175" s="9"/>
     </row>
-    <row r="176" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="b">
         <v>1</v>
       </c>
@@ -6774,7 +6773,7 @@
       <c r="I176" s="9"/>
       <c r="J176" s="22"/>
     </row>
-    <row r="177" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="b">
         <v>1</v>
       </c>
@@ -6798,7 +6797,7 @@
       <c r="I177" s="9"/>
       <c r="J177" s="22"/>
     </row>
-    <row r="178" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="b">
         <v>1</v>
       </c>
@@ -6822,7 +6821,7 @@
       <c r="I178" s="9"/>
       <c r="J178" s="9"/>
     </row>
-    <row r="179" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="b">
         <v>1</v>
       </c>
@@ -6846,7 +6845,7 @@
       <c r="I179" s="9"/>
       <c r="J179" s="9"/>
     </row>
-    <row r="180" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="b">
         <v>1</v>
       </c>
@@ -6872,7 +6871,7 @@
       <c r="I180" s="9"/>
       <c r="J180" s="9"/>
     </row>
-    <row r="181" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="b">
         <v>1</v>
       </c>
@@ -6900,7 +6899,7 @@
       </c>
       <c r="J181" s="9"/>
     </row>
-    <row r="182" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="b">
         <v>1</v>
       </c>
@@ -6928,7 +6927,7 @@
       </c>
       <c r="J182" s="9"/>
     </row>
-    <row r="183" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="b">
         <v>1</v>
       </c>
@@ -6952,7 +6951,7 @@
       <c r="I183" s="9"/>
       <c r="J183" s="9"/>
     </row>
-    <row r="184" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="b">
         <v>1</v>
       </c>
@@ -6976,7 +6975,7 @@
       <c r="I184" s="9"/>
       <c r="J184" s="9"/>
     </row>
-    <row r="185" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="b">
         <v>1</v>
       </c>
@@ -7002,7 +7001,7 @@
       <c r="I185" s="9"/>
       <c r="J185" s="9"/>
     </row>
-    <row r="186" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="b">
         <v>1</v>
       </c>
@@ -7428,7 +7427,7 @@
       <c r="I203" s="9"/>
       <c r="J203" s="9"/>
     </row>
-    <row r="204" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="b">
         <v>1</v>
       </c>
@@ -7478,7 +7477,7 @@
       <c r="I205" s="9"/>
       <c r="J205" s="9"/>
     </row>
-    <row r="206" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="b">
         <v>1</v>
       </c>
@@ -7572,7 +7571,7 @@
       <c r="I209" s="9"/>
       <c r="J209" s="9"/>
     </row>
-    <row r="210" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="b">
         <v>1</v>
       </c>
@@ -7696,7 +7695,7 @@
       <c r="I214" s="9"/>
       <c r="J214" s="9"/>
     </row>
-    <row r="215" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="b">
         <v>1</v>
       </c>
@@ -7720,7 +7719,7 @@
       <c r="I215" s="9"/>
       <c r="J215" s="9"/>
     </row>
-    <row r="216" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="b">
         <v>1</v>
       </c>
@@ -7744,7 +7743,7 @@
       <c r="I216" s="9"/>
       <c r="J216" s="9"/>
     </row>
-    <row r="217" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="b">
         <v>1</v>
       </c>
@@ -7768,7 +7767,7 @@
       <c r="I217" s="9"/>
       <c r="J217" s="9"/>
     </row>
-    <row r="218" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="b">
         <v>1</v>
       </c>
@@ -7792,7 +7791,7 @@
       <c r="I218" s="9"/>
       <c r="J218" s="9"/>
     </row>
-    <row r="219" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="b">
         <v>1</v>
       </c>
@@ -7816,7 +7815,7 @@
       <c r="I219" s="9"/>
       <c r="J219" s="22"/>
     </row>
-    <row r="220" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="b">
         <v>1</v>
       </c>
@@ -7910,7 +7909,7 @@
       <c r="I223" s="9"/>
       <c r="J223" s="9"/>
     </row>
-    <row r="224" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="b">
         <v>1</v>
       </c>
@@ -7934,7 +7933,7 @@
       <c r="I224" s="9"/>
       <c r="J224" s="9"/>
     </row>
-    <row r="225" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="b">
         <v>1</v>
       </c>
@@ -8156,7 +8155,7 @@
       <c r="I233" s="9"/>
       <c r="J233" s="9"/>
     </row>
-    <row r="234" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="b">
         <v>1</v>
       </c>
@@ -8274,7 +8273,7 @@
       <c r="I238" s="9"/>
       <c r="J238" s="9"/>
     </row>
-    <row r="239" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="b">
         <v>1</v>
       </c>
@@ -8300,7 +8299,7 @@
       <c r="I239" s="9"/>
       <c r="J239" s="9"/>
     </row>
-    <row r="240" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="b">
         <v>1</v>
       </c>
@@ -8324,7 +8323,7 @@
       <c r="I240" s="9"/>
       <c r="J240" s="9"/>
     </row>
-    <row r="241" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="b">
         <v>1</v>
       </c>
@@ -8348,7 +8347,7 @@
       <c r="I241" s="9"/>
       <c r="J241" s="9"/>
     </row>
-    <row r="242" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="b">
         <v>1</v>
       </c>
@@ -8372,7 +8371,7 @@
       <c r="I242" s="9"/>
       <c r="J242" s="9"/>
     </row>
-    <row r="243" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="b">
         <v>1</v>
       </c>
@@ -8394,7 +8393,7 @@
       <c r="I243" s="9"/>
       <c r="J243" s="9"/>
     </row>
-    <row r="244" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="b">
         <v>1</v>
       </c>
@@ -8420,7 +8419,7 @@
       <c r="I244" s="9"/>
       <c r="J244" s="9"/>
     </row>
-    <row r="245" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="b">
         <v>1</v>
       </c>
@@ -8444,7 +8443,7 @@
       <c r="I245" s="9"/>
       <c r="J245" s="9"/>
     </row>
-    <row r="246" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="b">
         <v>1</v>
       </c>
@@ -8472,7 +8471,7 @@
       </c>
       <c r="J246" s="9"/>
     </row>
-    <row r="247" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="b">
         <v>1</v>
       </c>
@@ -8688,7 +8687,7 @@
       <c r="I255" s="9"/>
       <c r="J255" s="9"/>
     </row>
-    <row r="256" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="b">
         <v>1</v>
       </c>
@@ -8712,7 +8711,7 @@
       <c r="I256" s="9"/>
       <c r="J256" s="9"/>
     </row>
-    <row r="257" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="b">
         <v>1</v>
       </c>
@@ -8834,7 +8833,7 @@
       <c r="I261" s="9"/>
       <c r="J261" s="9"/>
     </row>
-    <row r="262" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="b">
         <v>1</v>
       </c>
@@ -8858,7 +8857,7 @@
       <c r="I262" s="9"/>
       <c r="J262" s="9"/>
     </row>
-    <row r="263" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="b">
         <v>1</v>
       </c>
@@ -8882,7 +8881,7 @@
       <c r="I263" s="9"/>
       <c r="J263" s="9"/>
     </row>
-    <row r="264" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="b">
         <v>1</v>
       </c>
@@ -8906,7 +8905,7 @@
       <c r="I264" s="9"/>
       <c r="J264" s="9"/>
     </row>
-    <row r="265" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="b">
         <v>1</v>
       </c>
@@ -8952,7 +8951,7 @@
       <c r="I266" s="9"/>
       <c r="J266" s="9"/>
     </row>
-    <row r="267" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="b">
         <v>1</v>
       </c>
@@ -8978,7 +8977,7 @@
       <c r="I267" s="9"/>
       <c r="J267" s="9"/>
     </row>
-    <row r="268" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="b">
         <v>1</v>
       </c>
@@ -9074,7 +9073,7 @@
       <c r="I271" s="9"/>
       <c r="J271" s="9"/>
     </row>
-    <row r="272" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="b">
         <v>1</v>
       </c>
@@ -9096,7 +9095,7 @@
       <c r="I272" s="9"/>
       <c r="J272" s="9"/>
     </row>
-    <row r="273" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="b">
         <v>1</v>
       </c>
@@ -9120,7 +9119,7 @@
       <c r="I273" s="9"/>
       <c r="J273" s="9"/>
     </row>
-    <row r="274" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="b">
         <v>1</v>
       </c>
@@ -9144,7 +9143,7 @@
       <c r="I274" s="9"/>
       <c r="J274" s="9"/>
     </row>
-    <row r="275" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="b">
         <v>1</v>
       </c>
@@ -9170,7 +9169,7 @@
       <c r="I275" s="9"/>
       <c r="J275" s="9"/>
     </row>
-    <row r="276" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="b">
         <v>1</v>
       </c>
@@ -9196,7 +9195,7 @@
       <c r="I276" s="9"/>
       <c r="J276" s="9"/>
     </row>
-    <row r="277" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="b">
         <v>1</v>
       </c>
@@ -9370,7 +9369,7 @@
       <c r="I283" s="9"/>
       <c r="J283" s="9"/>
     </row>
-    <row r="284" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="b">
         <v>1</v>
       </c>
@@ -9396,7 +9395,7 @@
       <c r="I284" s="9"/>
       <c r="J284" s="9"/>
     </row>
-    <row r="285" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="b">
         <v>1</v>
       </c>
@@ -9470,7 +9469,7 @@
       <c r="I287" s="9"/>
       <c r="J287" s="9"/>
     </row>
-    <row r="288" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="b">
         <v>1</v>
       </c>
@@ -9496,7 +9495,7 @@
       <c r="I288" s="9"/>
       <c r="J288" s="9"/>
     </row>
-    <row r="289" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="b">
         <v>1</v>
       </c>
@@ -9522,7 +9521,7 @@
       <c r="I289" s="9"/>
       <c r="J289" s="9"/>
     </row>
-    <row r="290" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="b">
         <v>1</v>
       </c>
@@ -9548,7 +9547,7 @@
       <c r="I290" s="9"/>
       <c r="J290" s="9"/>
     </row>
-    <row r="291" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="b">
         <v>1</v>
       </c>
@@ -9570,7 +9569,7 @@
       <c r="I291" s="9"/>
       <c r="J291" s="9"/>
     </row>
-    <row r="292" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="9" t="b">
         <v>1</v>
       </c>
@@ -9594,7 +9593,7 @@
       <c r="I292" s="9"/>
       <c r="J292" s="9"/>
     </row>
-    <row r="293" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="b">
         <v>1</v>
       </c>
@@ -9620,7 +9619,7 @@
       <c r="I293" s="9"/>
       <c r="J293" s="9"/>
     </row>
-    <row r="294" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="b">
         <v>1</v>
       </c>
@@ -9644,7 +9643,7 @@
       <c r="I294" s="9"/>
       <c r="J294" s="9"/>
     </row>
-    <row r="295" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="b">
         <v>1</v>
       </c>
@@ -9670,7 +9669,7 @@
       <c r="I295" s="9"/>
       <c r="J295" s="9"/>
     </row>
-    <row r="296" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="b">
         <v>1</v>
       </c>
@@ -9694,7 +9693,7 @@
       <c r="I296" s="9"/>
       <c r="J296" s="9"/>
     </row>
-    <row r="297" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="b">
         <v>1</v>
       </c>
@@ -9720,7 +9719,7 @@
       <c r="I297" s="9"/>
       <c r="J297" s="9"/>
     </row>
-    <row r="298" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="b">
         <v>1</v>
       </c>
@@ -9744,7 +9743,7 @@
       <c r="I298" s="9"/>
       <c r="J298" s="9"/>
     </row>
-    <row r="299" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="9" t="b">
         <v>1</v>
       </c>
@@ -9768,7 +9767,7 @@
       <c r="I299" s="9"/>
       <c r="J299" s="9"/>
     </row>
-    <row r="300" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="b">
         <v>1</v>
       </c>
@@ -9792,7 +9791,7 @@
       <c r="I300" s="9"/>
       <c r="J300" s="9"/>
     </row>
-    <row r="301" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="b">
         <v>1</v>
       </c>
@@ -9942,7 +9941,7 @@
       <c r="I306" s="9"/>
       <c r="J306" s="9"/>
     </row>
-    <row r="307" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="b">
         <v>1</v>
       </c>
@@ -9966,7 +9965,7 @@
       <c r="I307" s="9"/>
       <c r="J307" s="9"/>
     </row>
-    <row r="308" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="9" t="b">
         <v>1</v>
       </c>
@@ -10186,7 +10185,7 @@
       <c r="I316" s="9"/>
       <c r="J316" s="9"/>
     </row>
-    <row r="317" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="9" t="b">
         <v>1</v>
       </c>
@@ -10236,7 +10235,7 @@
       <c r="I318" s="9"/>
       <c r="J318" s="9"/>
     </row>
-    <row r="319" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="b">
         <v>1</v>
       </c>
@@ -10310,7 +10309,7 @@
       <c r="I321" s="9"/>
       <c r="J321" s="9"/>
     </row>
-    <row r="322" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="b">
         <v>1</v>
       </c>
@@ -10332,7 +10331,7 @@
       <c r="I322" s="9"/>
       <c r="J322" s="9"/>
     </row>
-    <row r="323" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="9" t="b">
         <v>1</v>
       </c>
@@ -10404,7 +10403,7 @@
       <c r="I325" s="9"/>
       <c r="J325" s="9"/>
     </row>
-    <row r="326" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="9" t="b">
         <v>1</v>
       </c>
@@ -10526,7 +10525,7 @@
       <c r="I330" s="9"/>
       <c r="J330" s="9"/>
     </row>
-    <row r="331" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="9" t="b">
         <v>1</v>
       </c>
@@ -10552,7 +10551,7 @@
       </c>
       <c r="J331" s="9"/>
     </row>
-    <row r="332" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="9" t="b">
         <v>1</v>
       </c>
@@ -10576,7 +10575,7 @@
       <c r="I332" s="9"/>
       <c r="J332" s="22"/>
     </row>
-    <row r="333" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="9" t="b">
         <v>1</v>
       </c>
@@ -10598,7 +10597,7 @@
       <c r="I333" s="9"/>
       <c r="J333" s="9"/>
     </row>
-    <row r="334" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="9" t="b">
         <v>1</v>
       </c>
@@ -10624,7 +10623,7 @@
       <c r="I334" s="9"/>
       <c r="J334" s="22"/>
     </row>
-    <row r="335" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="9" t="b">
         <v>1</v>
       </c>
@@ -10650,7 +10649,7 @@
       <c r="I335" s="9"/>
       <c r="J335" s="22"/>
     </row>
-    <row r="336" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="9" t="b">
         <v>1</v>
       </c>
@@ -10676,7 +10675,7 @@
       <c r="I336" s="9"/>
       <c r="J336" s="22"/>
     </row>
-    <row r="337" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="9" t="b">
         <v>1</v>
       </c>
@@ -10702,7 +10701,7 @@
       </c>
       <c r="J337" s="9"/>
     </row>
-    <row r="338" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="9" t="b">
         <v>1</v>
       </c>
@@ -10728,7 +10727,7 @@
       <c r="I338" s="9"/>
       <c r="J338" s="9"/>
     </row>
-    <row r="339" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="9" t="b">
         <v>1</v>
       </c>
@@ -10754,7 +10753,7 @@
       <c r="I339" s="9"/>
       <c r="J339" s="9"/>
     </row>
-    <row r="340" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="9" t="b">
         <v>1</v>
       </c>
@@ -10780,7 +10779,7 @@
       </c>
       <c r="J340" s="9"/>
     </row>
-    <row r="341" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="9" t="b">
         <v>1</v>
       </c>
@@ -10806,7 +10805,7 @@
       </c>
       <c r="J341" s="9"/>
     </row>
-    <row r="342" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="9" t="b">
         <v>1</v>
       </c>
@@ -10828,7 +10827,7 @@
       <c r="I342" s="9"/>
       <c r="J342" s="9"/>
     </row>
-    <row r="343" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="9" t="b">
         <v>1</v>
       </c>
@@ -10998,7 +10997,7 @@
       <c r="I349" s="9"/>
       <c r="J349" s="9"/>
     </row>
-    <row r="350" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="9" t="b">
         <v>1</v>
       </c>
@@ -11022,7 +11021,7 @@
       <c r="I350" s="9"/>
       <c r="J350" s="9"/>
     </row>
-    <row r="351" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="9" t="b">
         <v>1</v>
       </c>
@@ -11046,7 +11045,7 @@
       <c r="I351" s="9"/>
       <c r="J351" s="9"/>
     </row>
-    <row r="352" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="9" t="b">
         <v>1</v>
       </c>
@@ -11070,7 +11069,7 @@
       <c r="I352" s="9"/>
       <c r="J352" s="9"/>
     </row>
-    <row r="353" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="9" t="b">
         <v>1</v>
       </c>
@@ -11096,7 +11095,7 @@
       <c r="I353" s="9"/>
       <c r="J353" s="9"/>
     </row>
-    <row r="354" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="9" t="b">
         <v>1</v>
       </c>
@@ -11166,7 +11165,7 @@
       <c r="I356" s="9"/>
       <c r="J356" s="9"/>
     </row>
-    <row r="357" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="9" t="b">
         <v>1</v>
       </c>
@@ -11192,7 +11191,7 @@
     </row>
     <row r="358" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B358" s="9" t="s">
         <v>473</v>
@@ -11238,7 +11237,7 @@
       <c r="I359" s="9"/>
       <c r="J359" s="9"/>
     </row>
-    <row r="360" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="9" t="b">
         <v>1</v>
       </c>
@@ -11428,7 +11427,7 @@
       <c r="I367" s="9"/>
       <c r="J367" s="9"/>
     </row>
-    <row r="368" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="9" t="b">
         <v>1</v>
       </c>
@@ -11452,7 +11451,7 @@
       <c r="I368" s="9"/>
       <c r="J368" s="9"/>
     </row>
-    <row r="369" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="9" t="b">
         <v>1</v>
       </c>
@@ -11476,7 +11475,7 @@
       <c r="I369" s="9"/>
       <c r="J369" s="9"/>
     </row>
-    <row r="370" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="9" t="b">
         <v>1</v>
       </c>
@@ -11502,7 +11501,7 @@
       <c r="I370" s="9"/>
       <c r="J370" s="9"/>
     </row>
-    <row r="371" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="9" t="b">
         <v>1</v>
       </c>
@@ -11624,7 +11623,7 @@
       <c r="I375" s="9"/>
       <c r="J375" s="9"/>
     </row>
-    <row r="376" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="9" t="b">
         <v>1</v>
       </c>
@@ -11652,7 +11651,7 @@
       </c>
       <c r="J376" s="22"/>
     </row>
-    <row r="377" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="9" t="b">
         <v>1</v>
       </c>
@@ -11676,7 +11675,7 @@
       <c r="I377" s="9"/>
       <c r="J377" s="9"/>
     </row>
-    <row r="378" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="9" t="b">
         <v>1</v>
       </c>
@@ -11894,7 +11893,7 @@
       <c r="I386" s="9"/>
       <c r="J386" s="9"/>
     </row>
-    <row r="387" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="9" t="b">
         <v>1</v>
       </c>
@@ -11966,7 +11965,7 @@
       <c r="I389" s="9"/>
       <c r="J389" s="9"/>
     </row>
-    <row r="390" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="9" t="b">
         <v>1</v>
       </c>
@@ -12014,7 +12013,7 @@
       <c r="I391" s="9"/>
       <c r="J391" s="9"/>
     </row>
-    <row r="392" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="9" t="b">
         <v>1</v>
       </c>
@@ -12040,7 +12039,7 @@
       <c r="I392" s="9"/>
       <c r="J392" s="9"/>
     </row>
-    <row r="393" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="9" t="b">
         <v>1</v>
       </c>
@@ -12068,7 +12067,7 @@
       <c r="I393" s="9"/>
       <c r="J393" s="9"/>
     </row>
-    <row r="394" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="9" t="b">
         <v>1</v>
       </c>
@@ -12094,7 +12093,7 @@
       <c r="I394" s="9"/>
       <c r="J394" s="9"/>
     </row>
-    <row r="395" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="9" t="b">
         <v>1</v>
       </c>
@@ -12120,7 +12119,7 @@
       <c r="I395" s="9"/>
       <c r="J395" s="9"/>
     </row>
-    <row r="396" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="9" t="b">
         <v>1</v>
       </c>
@@ -12146,7 +12145,7 @@
       <c r="I396" s="9"/>
       <c r="J396" s="9"/>
     </row>
-    <row r="397" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="9" t="b">
         <v>1</v>
       </c>
@@ -12170,7 +12169,7 @@
       <c r="I397" s="9"/>
       <c r="J397" s="9"/>
     </row>
-    <row r="398" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="9" t="b">
         <v>1</v>
       </c>
@@ -12194,7 +12193,7 @@
       <c r="I398" s="9"/>
       <c r="J398" s="9"/>
     </row>
-    <row r="399" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="9" t="b">
         <v>1</v>
       </c>
@@ -12220,7 +12219,7 @@
       <c r="I399" s="9"/>
       <c r="J399" s="9"/>
     </row>
-    <row r="400" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="9" t="b">
         <v>1</v>
       </c>
@@ -12244,7 +12243,7 @@
       <c r="I400" s="9"/>
       <c r="J400" s="9"/>
     </row>
-    <row r="401" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="9" t="b">
         <v>1</v>
       </c>
@@ -12268,7 +12267,7 @@
       <c r="I401" s="9"/>
       <c r="J401" s="9"/>
     </row>
-    <row r="402" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="9" t="b">
         <v>1</v>
       </c>
@@ -12292,7 +12291,7 @@
       <c r="I402" s="9"/>
       <c r="J402" s="9"/>
     </row>
-    <row r="403" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="9" t="b">
         <v>1</v>
       </c>
@@ -12316,7 +12315,7 @@
       <c r="I403" s="9"/>
       <c r="J403" s="9"/>
     </row>
-    <row r="404" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="9" t="b">
         <v>1</v>
       </c>
@@ -12344,7 +12343,7 @@
       </c>
       <c r="J404" s="9"/>
     </row>
-    <row r="405" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="9" t="b">
         <v>1</v>
       </c>
@@ -12370,7 +12369,7 @@
       <c r="I405" s="9"/>
       <c r="J405" s="9"/>
     </row>
-    <row r="406" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="9" t="b">
         <v>1</v>
       </c>
@@ -12418,7 +12417,7 @@
       <c r="I407" s="9"/>
       <c r="J407" s="9"/>
     </row>
-    <row r="408" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="9" t="b">
         <v>1</v>
       </c>
@@ -12442,7 +12441,7 @@
       <c r="I408" s="9"/>
       <c r="J408" s="9"/>
     </row>
-    <row r="409" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="9" t="b">
         <v>1</v>
       </c>
@@ -12516,7 +12515,7 @@
       <c r="I411" s="9"/>
       <c r="J411" s="9"/>
     </row>
-    <row r="412" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="9" t="b">
         <v>1</v>
       </c>
@@ -12680,7 +12679,7 @@
       <c r="I418" s="9"/>
       <c r="J418" s="9"/>
     </row>
-    <row r="419" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="9" t="b">
         <v>1</v>
       </c>
@@ -12706,7 +12705,7 @@
       <c r="I419" s="9"/>
       <c r="J419" s="9"/>
     </row>
-    <row r="420" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="9" t="b">
         <v>1</v>
       </c>
@@ -12732,7 +12731,7 @@
       <c r="I420" s="9"/>
       <c r="J420" s="9"/>
     </row>
-    <row r="421" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="9" t="b">
         <v>1</v>
       </c>
@@ -12756,7 +12755,7 @@
       <c r="I421" s="9"/>
       <c r="J421" s="9"/>
     </row>
-    <row r="422" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="9" t="b">
         <v>1</v>
       </c>
@@ -12782,7 +12781,7 @@
       <c r="I422" s="9"/>
       <c r="J422" s="9"/>
     </row>
-    <row r="423" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="9" t="b">
         <v>1</v>
       </c>
@@ -15729,11 +15728,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I998" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters blank="1">
-        <filter val="FALSE"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I998">
       <sortCondition ref="B1:B998"/>
     </sortState>

--- a/Gran Turismo 7 reward cars checklist.xlsx
+++ b/Gran Turismo 7 reward cars checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alex\Git\GT7-Farming-Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF791687-E683-4421-A35A-EEA2468D4535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616D0803-20FB-4EA8-8BE5-36DA2B1797A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12255" yWindow="1845" windowWidth="15000" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GT7 cars" sheetId="1" r:id="rId1"/>
@@ -2232,11 +2232,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AB998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2287,7 +2288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="b">
         <v>1</v>
       </c>
@@ -2313,7 +2314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="b">
         <v>1</v>
       </c>
@@ -2339,7 +2340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="b">
         <v>1</v>
       </c>
@@ -2367,7 +2368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="b">
         <v>1</v>
       </c>
@@ -2393,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="b">
         <v>1</v>
       </c>
@@ -2421,7 +2422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="b">
         <v>1</v>
       </c>
@@ -2449,7 +2450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="b">
         <v>1</v>
       </c>
@@ -2531,7 +2532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="b">
         <v>0</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="b">
         <v>0</v>
       </c>
@@ -2583,7 +2584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="b">
         <v>0</v>
       </c>
@@ -2607,7 +2608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="b">
         <v>1</v>
       </c>
@@ -2631,7 +2632,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="b">
         <v>1</v>
       </c>
@@ -2655,7 +2656,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="b">
         <v>1</v>
       </c>
@@ -2681,7 +2682,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="b">
         <v>1</v>
       </c>
@@ -2707,7 +2708,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="b">
         <v>0</v>
       </c>
@@ -2729,7 +2730,7 @@
       <c r="I18" s="44"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="b">
         <v>1</v>
       </c>
@@ -2751,7 +2752,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="b">
         <v>1</v>
       </c>
@@ -2779,7 +2780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="b">
         <v>1</v>
       </c>
@@ -2805,7 +2806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="b">
         <v>1</v>
       </c>
@@ -2833,7 +2834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="b">
         <v>1</v>
       </c>
@@ -2861,7 +2862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="b">
         <v>1</v>
       </c>
@@ -2889,7 +2890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="b">
         <v>1</v>
       </c>
@@ -2917,7 +2918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="b">
         <v>0</v>
       </c>
@@ -2941,7 +2942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="b">
         <v>0</v>
       </c>
@@ -2965,7 +2966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="b">
         <v>0</v>
       </c>
@@ -2991,7 +2992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="b">
         <v>0</v>
       </c>
@@ -3017,7 +3018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="b">
         <v>0</v>
       </c>
@@ -3043,7 +3044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="b">
         <v>0</v>
       </c>
@@ -3067,7 +3068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="b">
         <v>0</v>
       </c>
@@ -3093,7 +3094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="b">
         <v>0</v>
       </c>
@@ -3119,7 +3120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="b">
         <v>0</v>
       </c>
@@ -3143,7 +3144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="b">
         <v>0</v>
       </c>
@@ -3167,7 +3168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="b">
         <v>1</v>
       </c>
@@ -3191,7 +3192,7 @@
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="b">
         <v>1</v>
       </c>
@@ -3215,7 +3216,7 @@
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="b">
         <v>1</v>
       </c>
@@ -3239,7 +3240,7 @@
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="b">
         <v>1</v>
       </c>
@@ -3291,7 +3292,7 @@
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
     </row>
-    <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="b">
         <v>0</v>
       </c>
@@ -3313,7 +3314,7 @@
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="b">
         <v>0</v>
       </c>
@@ -3339,7 +3340,7 @@
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
     </row>
-    <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="b">
         <v>0</v>
       </c>
@@ -3363,7 +3364,7 @@
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
     </row>
-    <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="b">
         <v>0</v>
       </c>
@@ -3387,7 +3388,7 @@
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
     </row>
-    <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="b">
         <v>0</v>
       </c>
@@ -3411,7 +3412,7 @@
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
     </row>
-    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="b">
         <v>1</v>
       </c>
@@ -3439,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="b">
         <v>1</v>
       </c>
@@ -3469,7 +3470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="b">
         <v>0</v>
       </c>
@@ -3497,7 +3498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="b">
         <v>0</v>
       </c>
@@ -3523,7 +3524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="b">
         <v>1</v>
       </c>
@@ -3553,7 +3554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="b">
         <v>0</v>
       </c>
@@ -3577,7 +3578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="b">
         <v>1</v>
       </c>
@@ -3605,7 +3606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="b">
         <v>1</v>
       </c>
@@ -3633,7 +3634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="b">
         <v>1</v>
       </c>
@@ -3659,7 +3660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="b">
         <v>0</v>
       </c>
@@ -3687,7 +3688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="b">
         <v>0</v>
       </c>
@@ -3715,7 +3716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="b">
         <v>1</v>
       </c>
@@ -3741,7 +3742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="b">
         <v>0</v>
       </c>
@@ -3767,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="b">
         <v>0</v>
       </c>
@@ -3791,7 +3792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="b">
         <v>1</v>
       </c>
@@ -3819,7 +3820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="b">
         <v>1</v>
       </c>
@@ -3847,7 +3848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="b">
         <v>1</v>
       </c>
@@ -3875,7 +3876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="b">
         <v>1</v>
       </c>
@@ -3903,7 +3904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="b">
         <v>1</v>
       </c>
@@ -3929,7 +3930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="b">
         <v>1</v>
       </c>
@@ -3959,7 +3960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="b">
         <v>1</v>
       </c>
@@ -3985,7 +3986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="b">
         <v>1</v>
       </c>
@@ -4013,7 +4014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="b">
         <v>1</v>
       </c>
@@ -4039,7 +4040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="b">
         <v>1</v>
       </c>
@@ -4069,7 +4070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="b">
         <v>0</v>
       </c>
@@ -4097,7 +4098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="b">
         <v>0</v>
       </c>
@@ -4125,7 +4126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="b">
         <v>0</v>
       </c>
@@ -4151,7 +4152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="b">
         <v>0</v>
       </c>
@@ -4175,7 +4176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="b">
         <v>0</v>
       </c>
@@ -4203,7 +4204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="b">
         <v>0</v>
       </c>
@@ -4229,7 +4230,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="b">
         <v>0</v>
       </c>
@@ -4251,7 +4252,7 @@
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
     </row>
-    <row r="77" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="b">
         <v>0</v>
       </c>
@@ -4275,7 +4276,7 @@
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
     </row>
-    <row r="78" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="b">
         <v>1</v>
       </c>
@@ -4299,7 +4300,7 @@
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
     </row>
-    <row r="79" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="b">
         <v>0</v>
       </c>
@@ -4323,7 +4324,7 @@
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
     </row>
-    <row r="80" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="b">
         <v>0</v>
       </c>
@@ -4351,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="b">
         <v>0</v>
       </c>
@@ -4375,7 +4376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="b">
         <v>1</v>
       </c>
@@ -4403,7 +4404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="b">
         <v>1</v>
       </c>
@@ -4429,7 +4430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="b">
         <v>1</v>
       </c>
@@ -4457,7 +4458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="b">
         <v>1</v>
       </c>
@@ -4485,7 +4486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="b">
         <v>1</v>
       </c>
@@ -4511,7 +4512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="b">
         <v>1</v>
       </c>
@@ -4539,7 +4540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="b">
         <v>1</v>
       </c>
@@ -4569,7 +4570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="b">
         <v>1</v>
       </c>
@@ -4597,7 +4598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="b">
         <v>1</v>
       </c>
@@ -4621,7 +4622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="b">
         <v>1</v>
       </c>
@@ -4649,7 +4650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="b">
         <v>0</v>
       </c>
@@ -4675,7 +4676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="b">
         <v>0</v>
       </c>
@@ -4727,7 +4728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="b">
         <v>0</v>
       </c>
@@ -4753,7 +4754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="b">
         <v>0</v>
       </c>
@@ -4779,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="b">
         <v>1</v>
       </c>
@@ -4803,7 +4804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="b">
         <v>0</v>
       </c>
@@ -4829,7 +4830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="b">
         <v>0</v>
       </c>
@@ -4855,7 +4856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="b">
         <v>0</v>
       </c>
@@ -4879,7 +4880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="b">
         <v>1</v>
       </c>
@@ -4905,7 +4906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="b">
         <v>1</v>
       </c>
@@ -4957,7 +4958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="b">
         <v>1</v>
       </c>
@@ -4983,7 +4984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="b">
         <v>0</v>
       </c>
@@ -5009,7 +5010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="b">
         <v>1</v>
       </c>
@@ -5033,7 +5034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="b">
         <v>1</v>
       </c>
@@ -5057,7 +5058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="b">
         <v>1</v>
       </c>
@@ -5081,7 +5082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="b">
         <v>1</v>
       </c>
@@ -5109,7 +5110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="b">
         <v>1</v>
       </c>
@@ -5135,7 +5136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="b">
         <v>1</v>
       </c>
@@ -5161,7 +5162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="b">
         <v>1</v>
       </c>
@@ -5187,7 +5188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="b">
         <v>1</v>
       </c>
@@ -5213,7 +5214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="b">
         <v>0</v>
       </c>
@@ -5241,7 +5242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="b">
         <v>0</v>
       </c>
@@ -5267,7 +5268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="b">
         <v>0</v>
       </c>
@@ -5291,7 +5292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="b">
         <v>0</v>
       </c>
@@ -5317,7 +5318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="b">
         <v>1</v>
       </c>
@@ -5345,7 +5346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="b">
         <v>1</v>
       </c>
@@ -5373,9 +5374,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>178</v>
@@ -5493,7 +5494,7 @@
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
     </row>
-    <row r="125" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="b">
         <v>1</v>
       </c>
@@ -5517,7 +5518,7 @@
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
     </row>
-    <row r="126" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="b">
         <v>1</v>
       </c>
@@ -5541,7 +5542,7 @@
       <c r="I126" s="9"/>
       <c r="J126" s="22"/>
     </row>
-    <row r="127" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="b">
         <v>1</v>
       </c>
@@ -5565,7 +5566,7 @@
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
     </row>
-    <row r="128" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="b">
         <v>1</v>
       </c>
@@ -5589,7 +5590,7 @@
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
     </row>
-    <row r="129" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="b">
         <v>1</v>
       </c>
@@ -5613,7 +5614,7 @@
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
     </row>
-    <row r="130" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="b">
         <v>1</v>
       </c>
@@ -5639,7 +5640,7 @@
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
     </row>
-    <row r="131" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="b">
         <v>1</v>
       </c>
@@ -5663,7 +5664,7 @@
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
     </row>
-    <row r="132" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="b">
         <v>1</v>
       </c>
@@ -5687,7 +5688,7 @@
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
     </row>
-    <row r="133" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="b">
         <v>1</v>
       </c>
@@ -5715,7 +5716,7 @@
       </c>
       <c r="J133" s="22"/>
     </row>
-    <row r="134" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="b">
         <v>1</v>
       </c>
@@ -5739,7 +5740,7 @@
       <c r="I134" s="9"/>
       <c r="J134" s="22"/>
     </row>
-    <row r="135" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="b">
         <v>1</v>
       </c>
@@ -5765,7 +5766,7 @@
       </c>
       <c r="J135" s="9"/>
     </row>
-    <row r="136" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="b">
         <v>1</v>
       </c>
@@ -5793,7 +5794,7 @@
       </c>
       <c r="J136" s="9"/>
     </row>
-    <row r="137" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="b">
         <v>1</v>
       </c>
@@ -5815,7 +5816,7 @@
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
     </row>
-    <row r="138" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="b">
         <v>0</v>
       </c>
@@ -5841,7 +5842,7 @@
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
     </row>
-    <row r="139" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="b">
         <v>1</v>
       </c>
@@ -5865,7 +5866,7 @@
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
     </row>
-    <row r="140" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="b">
         <v>0</v>
       </c>
@@ -5889,7 +5890,7 @@
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
     </row>
-    <row r="141" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="b">
         <v>1</v>
       </c>
@@ -5913,7 +5914,7 @@
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
     </row>
-    <row r="142" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="b">
         <v>1</v>
       </c>
@@ -5987,7 +5988,7 @@
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
     </row>
-    <row r="145" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="b">
         <v>1</v>
       </c>
@@ -6011,7 +6012,7 @@
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
     </row>
-    <row r="146" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="b">
         <v>0</v>
       </c>
@@ -6037,7 +6038,7 @@
       <c r="I146" s="9"/>
       <c r="J146" s="22"/>
     </row>
-    <row r="147" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="b">
         <v>1</v>
       </c>
@@ -6061,7 +6062,7 @@
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
     </row>
-    <row r="148" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="b">
         <v>1</v>
       </c>
@@ -6087,7 +6088,7 @@
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
     </row>
-    <row r="149" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="b">
         <v>1</v>
       </c>
@@ -6113,7 +6114,7 @@
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
     </row>
-    <row r="150" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="b">
         <v>1</v>
       </c>
@@ -6139,7 +6140,7 @@
       <c r="I150" s="9"/>
       <c r="J150" s="9"/>
     </row>
-    <row r="151" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="b">
         <v>1</v>
       </c>
@@ -6165,7 +6166,7 @@
       <c r="I151" s="9"/>
       <c r="J151" s="9"/>
     </row>
-    <row r="152" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="b">
         <v>1</v>
       </c>
@@ -6189,7 +6190,7 @@
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
     </row>
-    <row r="153" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="b">
         <v>1</v>
       </c>
@@ -6215,7 +6216,7 @@
       <c r="I153" s="9"/>
       <c r="J153" s="22"/>
     </row>
-    <row r="154" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="b">
         <v>1</v>
       </c>
@@ -6241,7 +6242,7 @@
       <c r="I154" s="9"/>
       <c r="J154" s="9"/>
     </row>
-    <row r="155" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="b">
         <v>1</v>
       </c>
@@ -6269,7 +6270,7 @@
       </c>
       <c r="J155" s="9"/>
     </row>
-    <row r="156" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="b">
         <v>1</v>
       </c>
@@ -6297,7 +6298,7 @@
       </c>
       <c r="J156" s="9"/>
     </row>
-    <row r="157" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="b">
         <v>0</v>
       </c>
@@ -6321,7 +6322,7 @@
       <c r="I157" s="9"/>
       <c r="J157" s="9"/>
     </row>
-    <row r="158" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="b">
         <v>0</v>
       </c>
@@ -6345,7 +6346,7 @@
       <c r="I158" s="9"/>
       <c r="J158" s="9"/>
     </row>
-    <row r="159" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="b">
         <v>0</v>
       </c>
@@ -6369,7 +6370,7 @@
       <c r="I159" s="9"/>
       <c r="J159" s="9"/>
     </row>
-    <row r="160" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="b">
         <v>0</v>
       </c>
@@ -6391,7 +6392,7 @@
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
     </row>
-    <row r="161" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="b">
         <v>0</v>
       </c>
@@ -6415,7 +6416,7 @@
       <c r="I161" s="9"/>
       <c r="J161" s="9"/>
     </row>
-    <row r="162" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="b">
         <v>0</v>
       </c>
@@ -6439,7 +6440,7 @@
       <c r="I162" s="9"/>
       <c r="J162" s="9"/>
     </row>
-    <row r="163" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="b">
         <v>0</v>
       </c>
@@ -6463,7 +6464,7 @@
       <c r="I163" s="9"/>
       <c r="J163" s="9"/>
     </row>
-    <row r="164" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="b">
         <v>0</v>
       </c>
@@ -6487,7 +6488,7 @@
       <c r="I164" s="9"/>
       <c r="J164" s="9"/>
     </row>
-    <row r="165" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="b">
         <v>1</v>
       </c>
@@ -6511,7 +6512,7 @@
       <c r="I165" s="9"/>
       <c r="J165" s="9"/>
     </row>
-    <row r="166" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="b">
         <v>1</v>
       </c>
@@ -6537,7 +6538,7 @@
       <c r="I166" s="9"/>
       <c r="J166" s="9"/>
     </row>
-    <row r="167" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="b">
         <v>1</v>
       </c>
@@ -6561,7 +6562,7 @@
       <c r="I167" s="9"/>
       <c r="J167" s="9"/>
     </row>
-    <row r="168" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="b">
         <v>1</v>
       </c>
@@ -6583,7 +6584,7 @@
       <c r="I168" s="9"/>
       <c r="J168" s="9"/>
     </row>
-    <row r="169" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="b">
         <v>0</v>
       </c>
@@ -6607,7 +6608,7 @@
       <c r="I169" s="9"/>
       <c r="J169" s="9"/>
     </row>
-    <row r="170" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="b">
         <v>0</v>
       </c>
@@ -6629,7 +6630,7 @@
       <c r="I170" s="9"/>
       <c r="J170" s="9"/>
     </row>
-    <row r="171" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="b">
         <v>0</v>
       </c>
@@ -6651,7 +6652,7 @@
       <c r="I171" s="9"/>
       <c r="J171" s="9"/>
     </row>
-    <row r="172" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="b">
         <v>0</v>
       </c>
@@ -6673,7 +6674,7 @@
       <c r="I172" s="9"/>
       <c r="J172" s="9"/>
     </row>
-    <row r="173" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="b">
         <v>0</v>
       </c>
@@ -6699,7 +6700,7 @@
       <c r="I173" s="9"/>
       <c r="J173" s="9"/>
     </row>
-    <row r="174" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="b">
         <v>0</v>
       </c>
@@ -6725,7 +6726,7 @@
       <c r="I174" s="9"/>
       <c r="J174" s="9"/>
     </row>
-    <row r="175" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="b">
         <v>1</v>
       </c>
@@ -6749,7 +6750,7 @@
       <c r="I175" s="9"/>
       <c r="J175" s="9"/>
     </row>
-    <row r="176" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="b">
         <v>1</v>
       </c>
@@ -6773,7 +6774,7 @@
       <c r="I176" s="9"/>
       <c r="J176" s="22"/>
     </row>
-    <row r="177" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="b">
         <v>1</v>
       </c>
@@ -6797,7 +6798,7 @@
       <c r="I177" s="9"/>
       <c r="J177" s="22"/>
     </row>
-    <row r="178" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="b">
         <v>1</v>
       </c>
@@ -6821,7 +6822,7 @@
       <c r="I178" s="9"/>
       <c r="J178" s="9"/>
     </row>
-    <row r="179" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="b">
         <v>1</v>
       </c>
@@ -6845,7 +6846,7 @@
       <c r="I179" s="9"/>
       <c r="J179" s="9"/>
     </row>
-    <row r="180" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="b">
         <v>1</v>
       </c>
@@ -6871,7 +6872,7 @@
       <c r="I180" s="9"/>
       <c r="J180" s="9"/>
     </row>
-    <row r="181" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="b">
         <v>1</v>
       </c>
@@ -6899,7 +6900,7 @@
       </c>
       <c r="J181" s="9"/>
     </row>
-    <row r="182" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="b">
         <v>1</v>
       </c>
@@ -6927,7 +6928,7 @@
       </c>
       <c r="J182" s="9"/>
     </row>
-    <row r="183" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="b">
         <v>1</v>
       </c>
@@ -6951,7 +6952,7 @@
       <c r="I183" s="9"/>
       <c r="J183" s="9"/>
     </row>
-    <row r="184" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="b">
         <v>1</v>
       </c>
@@ -6975,7 +6976,7 @@
       <c r="I184" s="9"/>
       <c r="J184" s="9"/>
     </row>
-    <row r="185" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="b">
         <v>1</v>
       </c>
@@ -7001,7 +7002,7 @@
       <c r="I185" s="9"/>
       <c r="J185" s="9"/>
     </row>
-    <row r="186" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="b">
         <v>1</v>
       </c>
@@ -7025,7 +7026,7 @@
       <c r="I186" s="9"/>
       <c r="J186" s="9"/>
     </row>
-    <row r="187" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="b">
         <v>0</v>
       </c>
@@ -7049,7 +7050,7 @@
       <c r="I187" s="9"/>
       <c r="J187" s="9"/>
     </row>
-    <row r="188" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="b">
         <v>0</v>
       </c>
@@ -7073,7 +7074,7 @@
       <c r="I188" s="9"/>
       <c r="J188" s="9"/>
     </row>
-    <row r="189" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="b">
         <v>0</v>
       </c>
@@ -7097,7 +7098,7 @@
       <c r="I189" s="9"/>
       <c r="J189" s="9"/>
     </row>
-    <row r="190" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="b">
         <v>0</v>
       </c>
@@ -7121,7 +7122,7 @@
       <c r="I190" s="9"/>
       <c r="J190" s="9"/>
     </row>
-    <row r="191" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="b">
         <v>0</v>
       </c>
@@ -7145,7 +7146,7 @@
       <c r="I191" s="9"/>
       <c r="J191" s="9"/>
     </row>
-    <row r="192" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="b">
         <v>0</v>
       </c>
@@ -7169,7 +7170,7 @@
       <c r="I192" s="9"/>
       <c r="J192" s="9"/>
     </row>
-    <row r="193" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="b">
         <v>0</v>
       </c>
@@ -7193,7 +7194,7 @@
       <c r="I193" s="9"/>
       <c r="J193" s="9"/>
     </row>
-    <row r="194" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="b">
         <v>0</v>
       </c>
@@ -7219,7 +7220,7 @@
       <c r="I194" s="9"/>
       <c r="J194" s="9"/>
     </row>
-    <row r="195" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="b">
         <v>0</v>
       </c>
@@ -7243,7 +7244,7 @@
       <c r="I195" s="9"/>
       <c r="J195" s="9"/>
     </row>
-    <row r="196" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="b">
         <v>0</v>
       </c>
@@ -7267,7 +7268,7 @@
       <c r="I196" s="9"/>
       <c r="J196" s="9"/>
     </row>
-    <row r="197" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="b">
         <v>0</v>
       </c>
@@ -7291,7 +7292,7 @@
       <c r="I197" s="9"/>
       <c r="J197" s="9"/>
     </row>
-    <row r="198" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="b">
         <v>0</v>
       </c>
@@ -7315,7 +7316,7 @@
       <c r="I198" s="9"/>
       <c r="J198" s="9"/>
     </row>
-    <row r="199" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="b">
         <v>0</v>
       </c>
@@ -7361,7 +7362,7 @@
       <c r="I200" s="9"/>
       <c r="J200" s="9"/>
     </row>
-    <row r="201" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="b">
         <v>0</v>
       </c>
@@ -7383,7 +7384,7 @@
       <c r="I201" s="9"/>
       <c r="J201" s="9"/>
     </row>
-    <row r="202" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="b">
         <v>0</v>
       </c>
@@ -7405,7 +7406,7 @@
       <c r="I202" s="9"/>
       <c r="J202" s="9"/>
     </row>
-    <row r="203" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="b">
         <v>0</v>
       </c>
@@ -7427,7 +7428,7 @@
       <c r="I203" s="9"/>
       <c r="J203" s="9"/>
     </row>
-    <row r="204" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="b">
         <v>1</v>
       </c>
@@ -7453,7 +7454,7 @@
       <c r="I204" s="9"/>
       <c r="J204" s="9"/>
     </row>
-    <row r="205" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="b">
         <v>0</v>
       </c>
@@ -7477,7 +7478,7 @@
       <c r="I205" s="9"/>
       <c r="J205" s="9"/>
     </row>
-    <row r="206" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="b">
         <v>1</v>
       </c>
@@ -7499,7 +7500,7 @@
       <c r="I206" s="9"/>
       <c r="J206" s="9"/>
     </row>
-    <row r="207" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="b">
         <v>0</v>
       </c>
@@ -7547,7 +7548,7 @@
       <c r="I208" s="9"/>
       <c r="J208" s="9"/>
     </row>
-    <row r="209" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="b">
         <v>0</v>
       </c>
@@ -7571,7 +7572,7 @@
       <c r="I209" s="9"/>
       <c r="J209" s="9"/>
     </row>
-    <row r="210" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="b">
         <v>1</v>
       </c>
@@ -7597,7 +7598,7 @@
       <c r="I210" s="9"/>
       <c r="J210" s="9"/>
     </row>
-    <row r="211" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="b">
         <v>0</v>
       </c>
@@ -7621,7 +7622,7 @@
       <c r="I211" s="9"/>
       <c r="J211" s="9"/>
     </row>
-    <row r="212" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="b">
         <v>0</v>
       </c>
@@ -7643,7 +7644,7 @@
       <c r="I212" s="9"/>
       <c r="J212" s="9"/>
     </row>
-    <row r="213" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="b">
         <v>0</v>
       </c>
@@ -7669,7 +7670,7 @@
       </c>
       <c r="J213" s="9"/>
     </row>
-    <row r="214" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="b">
         <v>0</v>
       </c>
@@ -7695,7 +7696,7 @@
       <c r="I214" s="9"/>
       <c r="J214" s="9"/>
     </row>
-    <row r="215" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="b">
         <v>1</v>
       </c>
@@ -7719,7 +7720,7 @@
       <c r="I215" s="9"/>
       <c r="J215" s="9"/>
     </row>
-    <row r="216" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="b">
         <v>1</v>
       </c>
@@ -7743,7 +7744,7 @@
       <c r="I216" s="9"/>
       <c r="J216" s="9"/>
     </row>
-    <row r="217" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="b">
         <v>1</v>
       </c>
@@ -7767,7 +7768,7 @@
       <c r="I217" s="9"/>
       <c r="J217" s="9"/>
     </row>
-    <row r="218" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="b">
         <v>1</v>
       </c>
@@ -7791,7 +7792,7 @@
       <c r="I218" s="9"/>
       <c r="J218" s="9"/>
     </row>
-    <row r="219" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="b">
         <v>1</v>
       </c>
@@ -7815,7 +7816,7 @@
       <c r="I219" s="9"/>
       <c r="J219" s="22"/>
     </row>
-    <row r="220" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="b">
         <v>1</v>
       </c>
@@ -7837,7 +7838,7 @@
       <c r="I220" s="9"/>
       <c r="J220" s="9"/>
     </row>
-    <row r="221" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="b">
         <v>0</v>
       </c>
@@ -7861,7 +7862,7 @@
       <c r="I221" s="9"/>
       <c r="J221" s="9"/>
     </row>
-    <row r="222" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="b">
         <v>0</v>
       </c>
@@ -7885,7 +7886,7 @@
       <c r="I222" s="9"/>
       <c r="J222" s="9"/>
     </row>
-    <row r="223" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="b">
         <v>0</v>
       </c>
@@ -7909,7 +7910,7 @@
       <c r="I223" s="9"/>
       <c r="J223" s="9"/>
     </row>
-    <row r="224" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="b">
         <v>1</v>
       </c>
@@ -7933,7 +7934,7 @@
       <c r="I224" s="9"/>
       <c r="J224" s="9"/>
     </row>
-    <row r="225" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="b">
         <v>1</v>
       </c>
@@ -7957,7 +7958,7 @@
       <c r="I225" s="9"/>
       <c r="J225" s="9"/>
     </row>
-    <row r="226" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="b">
         <v>0</v>
       </c>
@@ -7979,7 +7980,7 @@
       <c r="I226" s="9"/>
       <c r="J226" s="9"/>
     </row>
-    <row r="227" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="b">
         <v>0</v>
       </c>
@@ -8005,7 +8006,7 @@
       <c r="I227" s="9"/>
       <c r="J227" s="9"/>
     </row>
-    <row r="228" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="b">
         <v>0</v>
       </c>
@@ -8031,7 +8032,7 @@
       <c r="I228" s="9"/>
       <c r="J228" s="9"/>
     </row>
-    <row r="229" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="b">
         <v>0</v>
       </c>
@@ -8057,7 +8058,7 @@
       <c r="I229" s="9"/>
       <c r="J229" s="9"/>
     </row>
-    <row r="230" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="b">
         <v>0</v>
       </c>
@@ -8083,7 +8084,7 @@
       <c r="I230" s="9"/>
       <c r="J230" s="9"/>
     </row>
-    <row r="231" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="b">
         <v>0</v>
       </c>
@@ -8107,7 +8108,7 @@
       <c r="I231" s="9"/>
       <c r="J231" s="9"/>
     </row>
-    <row r="232" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="b">
         <v>0</v>
       </c>
@@ -8131,7 +8132,7 @@
       <c r="I232" s="9"/>
       <c r="J232" s="9"/>
     </row>
-    <row r="233" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="b">
         <v>0</v>
       </c>
@@ -8155,7 +8156,7 @@
       <c r="I233" s="9"/>
       <c r="J233" s="9"/>
     </row>
-    <row r="234" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="b">
         <v>1</v>
       </c>
@@ -8179,7 +8180,7 @@
       <c r="I234" s="9"/>
       <c r="J234" s="9"/>
     </row>
-    <row r="235" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="b">
         <v>0</v>
       </c>
@@ -8203,7 +8204,7 @@
       <c r="I235" s="9"/>
       <c r="J235" s="9"/>
     </row>
-    <row r="236" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="b">
         <v>0</v>
       </c>
@@ -8225,7 +8226,7 @@
       <c r="I236" s="9"/>
       <c r="J236" s="22"/>
     </row>
-    <row r="237" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="b">
         <v>0</v>
       </c>
@@ -8249,7 +8250,7 @@
       <c r="I237" s="9"/>
       <c r="J237" s="9"/>
     </row>
-    <row r="238" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="b">
         <v>0</v>
       </c>
@@ -8273,7 +8274,7 @@
       <c r="I238" s="9"/>
       <c r="J238" s="9"/>
     </row>
-    <row r="239" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="b">
         <v>1</v>
       </c>
@@ -8299,7 +8300,7 @@
       <c r="I239" s="9"/>
       <c r="J239" s="9"/>
     </row>
-    <row r="240" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="b">
         <v>1</v>
       </c>
@@ -8323,7 +8324,7 @@
       <c r="I240" s="9"/>
       <c r="J240" s="9"/>
     </row>
-    <row r="241" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="b">
         <v>1</v>
       </c>
@@ -8347,7 +8348,7 @@
       <c r="I241" s="9"/>
       <c r="J241" s="9"/>
     </row>
-    <row r="242" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="b">
         <v>1</v>
       </c>
@@ -8371,7 +8372,7 @@
       <c r="I242" s="9"/>
       <c r="J242" s="9"/>
     </row>
-    <row r="243" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="b">
         <v>1</v>
       </c>
@@ -8393,7 +8394,7 @@
       <c r="I243" s="9"/>
       <c r="J243" s="9"/>
     </row>
-    <row r="244" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="b">
         <v>1</v>
       </c>
@@ -8419,7 +8420,7 @@
       <c r="I244" s="9"/>
       <c r="J244" s="9"/>
     </row>
-    <row r="245" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="b">
         <v>1</v>
       </c>
@@ -8443,7 +8444,7 @@
       <c r="I245" s="9"/>
       <c r="J245" s="9"/>
     </row>
-    <row r="246" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="b">
         <v>1</v>
       </c>
@@ -8471,7 +8472,7 @@
       </c>
       <c r="J246" s="9"/>
     </row>
-    <row r="247" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="b">
         <v>1</v>
       </c>
@@ -8497,7 +8498,7 @@
       <c r="I247" s="9"/>
       <c r="J247" s="9"/>
     </row>
-    <row r="248" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="b">
         <v>0</v>
       </c>
@@ -8521,7 +8522,7 @@
       <c r="I248" s="9"/>
       <c r="J248" s="9"/>
     </row>
-    <row r="249" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="b">
         <v>0</v>
       </c>
@@ -8543,7 +8544,7 @@
       <c r="I249" s="9"/>
       <c r="J249" s="9"/>
     </row>
-    <row r="250" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="b">
         <v>0</v>
       </c>
@@ -8567,7 +8568,7 @@
       <c r="I250" s="9"/>
       <c r="J250" s="9"/>
     </row>
-    <row r="251" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="b">
         <v>0</v>
       </c>
@@ -8615,7 +8616,7 @@
       <c r="I252" s="9"/>
       <c r="J252" s="9"/>
     </row>
-    <row r="253" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="b">
         <v>0</v>
       </c>
@@ -8637,7 +8638,7 @@
       <c r="I253" s="9"/>
       <c r="J253" s="9"/>
     </row>
-    <row r="254" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="b">
         <v>0</v>
       </c>
@@ -8661,7 +8662,7 @@
       <c r="I254" s="9"/>
       <c r="J254" s="9"/>
     </row>
-    <row r="255" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="b">
         <v>0</v>
       </c>
@@ -8687,7 +8688,7 @@
       <c r="I255" s="9"/>
       <c r="J255" s="9"/>
     </row>
-    <row r="256" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="b">
         <v>1</v>
       </c>
@@ -8711,7 +8712,7 @@
       <c r="I256" s="9"/>
       <c r="J256" s="9"/>
     </row>
-    <row r="257" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="b">
         <v>1</v>
       </c>
@@ -8735,7 +8736,7 @@
       <c r="I257" s="9"/>
       <c r="J257" s="9"/>
     </row>
-    <row r="258" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="b">
         <v>0</v>
       </c>
@@ -8759,7 +8760,7 @@
       <c r="I258" s="9"/>
       <c r="J258" s="9"/>
     </row>
-    <row r="259" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="b">
         <v>0</v>
       </c>
@@ -8833,7 +8834,7 @@
       <c r="I261" s="9"/>
       <c r="J261" s="9"/>
     </row>
-    <row r="262" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="b">
         <v>1</v>
       </c>
@@ -8857,7 +8858,7 @@
       <c r="I262" s="9"/>
       <c r="J262" s="9"/>
     </row>
-    <row r="263" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="b">
         <v>1</v>
       </c>
@@ -8881,7 +8882,7 @@
       <c r="I263" s="9"/>
       <c r="J263" s="9"/>
     </row>
-    <row r="264" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="b">
         <v>1</v>
       </c>
@@ -8905,7 +8906,7 @@
       <c r="I264" s="9"/>
       <c r="J264" s="9"/>
     </row>
-    <row r="265" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="b">
         <v>1</v>
       </c>
@@ -8929,7 +8930,7 @@
       <c r="I265" s="9"/>
       <c r="J265" s="9"/>
     </row>
-    <row r="266" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="b">
         <v>0</v>
       </c>
@@ -8951,7 +8952,7 @@
       <c r="I266" s="9"/>
       <c r="J266" s="9"/>
     </row>
-    <row r="267" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="b">
         <v>1</v>
       </c>
@@ -8977,7 +8978,7 @@
       <c r="I267" s="9"/>
       <c r="J267" s="9"/>
     </row>
-    <row r="268" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="b">
         <v>1</v>
       </c>
@@ -9003,7 +9004,7 @@
       <c r="I268" s="9"/>
       <c r="J268" s="9"/>
     </row>
-    <row r="269" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="b">
         <v>0</v>
       </c>
@@ -9025,7 +9026,7 @@
       <c r="I269" s="9"/>
       <c r="J269" s="9"/>
     </row>
-    <row r="270" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="b">
         <v>0</v>
       </c>
@@ -9049,7 +9050,7 @@
       <c r="I270" s="9"/>
       <c r="J270" s="9"/>
     </row>
-    <row r="271" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="b">
         <v>0</v>
       </c>
@@ -9073,7 +9074,7 @@
       <c r="I271" s="9"/>
       <c r="J271" s="9"/>
     </row>
-    <row r="272" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="b">
         <v>1</v>
       </c>
@@ -9095,7 +9096,7 @@
       <c r="I272" s="9"/>
       <c r="J272" s="9"/>
     </row>
-    <row r="273" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="b">
         <v>1</v>
       </c>
@@ -9119,7 +9120,7 @@
       <c r="I273" s="9"/>
       <c r="J273" s="9"/>
     </row>
-    <row r="274" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="b">
         <v>1</v>
       </c>
@@ -9143,7 +9144,7 @@
       <c r="I274" s="9"/>
       <c r="J274" s="9"/>
     </row>
-    <row r="275" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="b">
         <v>1</v>
       </c>
@@ -9169,7 +9170,7 @@
       <c r="I275" s="9"/>
       <c r="J275" s="9"/>
     </row>
-    <row r="276" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="b">
         <v>1</v>
       </c>
@@ -9195,7 +9196,7 @@
       <c r="I276" s="9"/>
       <c r="J276" s="9"/>
     </row>
-    <row r="277" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="b">
         <v>1</v>
       </c>
@@ -9219,7 +9220,7 @@
       <c r="I277" s="9"/>
       <c r="J277" s="9"/>
     </row>
-    <row r="278" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="b">
         <v>0</v>
       </c>
@@ -9243,7 +9244,7 @@
       <c r="I278" s="9"/>
       <c r="J278" s="9"/>
     </row>
-    <row r="279" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="b">
         <v>0</v>
       </c>
@@ -9269,7 +9270,7 @@
       <c r="I279" s="9"/>
       <c r="J279" s="9"/>
     </row>
-    <row r="280" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="b">
         <v>0</v>
       </c>
@@ -9293,7 +9294,7 @@
       <c r="I280" s="9"/>
       <c r="J280" s="9"/>
     </row>
-    <row r="281" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="b">
         <v>0</v>
       </c>
@@ -9319,7 +9320,7 @@
       <c r="I281" s="9"/>
       <c r="J281" s="9"/>
     </row>
-    <row r="282" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="b">
         <v>0</v>
       </c>
@@ -9345,7 +9346,7 @@
       <c r="I282" s="9"/>
       <c r="J282" s="22"/>
     </row>
-    <row r="283" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="b">
         <v>0</v>
       </c>
@@ -9369,7 +9370,7 @@
       <c r="I283" s="9"/>
       <c r="J283" s="9"/>
     </row>
-    <row r="284" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="b">
         <v>1</v>
       </c>
@@ -9395,7 +9396,7 @@
       <c r="I284" s="9"/>
       <c r="J284" s="9"/>
     </row>
-    <row r="285" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="b">
         <v>1</v>
       </c>
@@ -9421,7 +9422,7 @@
       <c r="I285" s="9"/>
       <c r="J285" s="9"/>
     </row>
-    <row r="286" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="b">
         <v>0</v>
       </c>
@@ -9445,7 +9446,7 @@
       <c r="I286" s="9"/>
       <c r="J286" s="9"/>
     </row>
-    <row r="287" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="b">
         <v>0</v>
       </c>
@@ -9469,7 +9470,7 @@
       <c r="I287" s="9"/>
       <c r="J287" s="9"/>
     </row>
-    <row r="288" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="b">
         <v>1</v>
       </c>
@@ -9495,7 +9496,7 @@
       <c r="I288" s="9"/>
       <c r="J288" s="9"/>
     </row>
-    <row r="289" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="b">
         <v>1</v>
       </c>
@@ -9521,7 +9522,7 @@
       <c r="I289" s="9"/>
       <c r="J289" s="9"/>
     </row>
-    <row r="290" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="b">
         <v>1</v>
       </c>
@@ -9547,7 +9548,7 @@
       <c r="I290" s="9"/>
       <c r="J290" s="9"/>
     </row>
-    <row r="291" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="b">
         <v>1</v>
       </c>
@@ -9569,7 +9570,7 @@
       <c r="I291" s="9"/>
       <c r="J291" s="9"/>
     </row>
-    <row r="292" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="9" t="b">
         <v>1</v>
       </c>
@@ -9593,7 +9594,7 @@
       <c r="I292" s="9"/>
       <c r="J292" s="9"/>
     </row>
-    <row r="293" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="b">
         <v>1</v>
       </c>
@@ -9619,7 +9620,7 @@
       <c r="I293" s="9"/>
       <c r="J293" s="9"/>
     </row>
-    <row r="294" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="b">
         <v>1</v>
       </c>
@@ -9643,7 +9644,7 @@
       <c r="I294" s="9"/>
       <c r="J294" s="9"/>
     </row>
-    <row r="295" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="b">
         <v>1</v>
       </c>
@@ -9669,7 +9670,7 @@
       <c r="I295" s="9"/>
       <c r="J295" s="9"/>
     </row>
-    <row r="296" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="b">
         <v>1</v>
       </c>
@@ -9693,7 +9694,7 @@
       <c r="I296" s="9"/>
       <c r="J296" s="9"/>
     </row>
-    <row r="297" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="b">
         <v>1</v>
       </c>
@@ -9719,7 +9720,7 @@
       <c r="I297" s="9"/>
       <c r="J297" s="9"/>
     </row>
-    <row r="298" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="b">
         <v>1</v>
       </c>
@@ -9743,7 +9744,7 @@
       <c r="I298" s="9"/>
       <c r="J298" s="9"/>
     </row>
-    <row r="299" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="9" t="b">
         <v>1</v>
       </c>
@@ -9767,7 +9768,7 @@
       <c r="I299" s="9"/>
       <c r="J299" s="9"/>
     </row>
-    <row r="300" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="b">
         <v>1</v>
       </c>
@@ -9791,7 +9792,7 @@
       <c r="I300" s="9"/>
       <c r="J300" s="9"/>
     </row>
-    <row r="301" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="b">
         <v>1</v>
       </c>
@@ -9819,9 +9820,9 @@
       </c>
       <c r="J301" s="9"/>
     </row>
-    <row r="302" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B302" s="9" t="s">
         <v>377</v>
@@ -9845,7 +9846,7 @@
       <c r="I302" s="9"/>
       <c r="J302" s="9"/>
     </row>
-    <row r="303" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="b">
         <v>0</v>
       </c>
@@ -9893,7 +9894,7 @@
       <c r="I304" s="9"/>
       <c r="J304" s="9"/>
     </row>
-    <row r="305" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="9" t="b">
         <v>0</v>
       </c>
@@ -9941,7 +9942,7 @@
       <c r="I306" s="9"/>
       <c r="J306" s="9"/>
     </row>
-    <row r="307" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="b">
         <v>1</v>
       </c>
@@ -9965,7 +9966,7 @@
       <c r="I307" s="9"/>
       <c r="J307" s="9"/>
     </row>
-    <row r="308" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="9" t="b">
         <v>1</v>
       </c>
@@ -9991,7 +9992,7 @@
       </c>
       <c r="J308" s="22"/>
     </row>
-    <row r="309" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="9" t="b">
         <v>0</v>
       </c>
@@ -10017,7 +10018,7 @@
       <c r="I309" s="9"/>
       <c r="J309" s="9"/>
     </row>
-    <row r="310" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="b">
         <v>0</v>
       </c>
@@ -10041,7 +10042,7 @@
       <c r="I310" s="9"/>
       <c r="J310" s="9"/>
     </row>
-    <row r="311" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="b">
         <v>0</v>
       </c>
@@ -10067,7 +10068,7 @@
       <c r="I311" s="9"/>
       <c r="J311" s="9"/>
     </row>
-    <row r="312" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="b">
         <v>0</v>
       </c>
@@ -10089,7 +10090,7 @@
       <c r="I312" s="9"/>
       <c r="J312" s="9"/>
     </row>
-    <row r="313" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="b">
         <v>0</v>
       </c>
@@ -10113,7 +10114,7 @@
       <c r="I313" s="9"/>
       <c r="J313" s="9"/>
     </row>
-    <row r="314" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="b">
         <v>0</v>
       </c>
@@ -10137,7 +10138,7 @@
       <c r="I314" s="9"/>
       <c r="J314" s="9"/>
     </row>
-    <row r="315" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="b">
         <v>0</v>
       </c>
@@ -10161,7 +10162,7 @@
       <c r="I315" s="9"/>
       <c r="J315" s="9"/>
     </row>
-    <row r="316" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="9" t="b">
         <v>0</v>
       </c>
@@ -10185,7 +10186,7 @@
       <c r="I316" s="9"/>
       <c r="J316" s="9"/>
     </row>
-    <row r="317" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="9" t="b">
         <v>1</v>
       </c>
@@ -10213,7 +10214,7 @@
       <c r="I317" s="9"/>
       <c r="J317" s="9"/>
     </row>
-    <row r="318" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="9" t="b">
         <v>0</v>
       </c>
@@ -10235,7 +10236,7 @@
       <c r="I318" s="9"/>
       <c r="J318" s="9"/>
     </row>
-    <row r="319" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="b">
         <v>1</v>
       </c>
@@ -10261,7 +10262,7 @@
       <c r="I319" s="9"/>
       <c r="J319" s="9"/>
     </row>
-    <row r="320" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="9" t="b">
         <v>0</v>
       </c>
@@ -10309,7 +10310,7 @@
       <c r="I321" s="9"/>
       <c r="J321" s="9"/>
     </row>
-    <row r="322" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="b">
         <v>1</v>
       </c>
@@ -10331,7 +10332,7 @@
       <c r="I322" s="9"/>
       <c r="J322" s="9"/>
     </row>
-    <row r="323" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="9" t="b">
         <v>1</v>
       </c>
@@ -10403,7 +10404,7 @@
       <c r="I325" s="9"/>
       <c r="J325" s="9"/>
     </row>
-    <row r="326" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="9" t="b">
         <v>1</v>
       </c>
@@ -10429,7 +10430,7 @@
       <c r="I326" s="9"/>
       <c r="J326" s="9"/>
     </row>
-    <row r="327" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="b">
         <v>0</v>
       </c>
@@ -10475,7 +10476,7 @@
       <c r="I328" s="9"/>
       <c r="J328" s="9"/>
     </row>
-    <row r="329" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="9" t="b">
         <v>0</v>
       </c>
@@ -10501,7 +10502,7 @@
       <c r="I329" s="9"/>
       <c r="J329" s="9"/>
     </row>
-    <row r="330" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="9" t="b">
         <v>0</v>
       </c>
@@ -10525,7 +10526,7 @@
       <c r="I330" s="9"/>
       <c r="J330" s="9"/>
     </row>
-    <row r="331" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="9" t="b">
         <v>1</v>
       </c>
@@ -10551,7 +10552,7 @@
       </c>
       <c r="J331" s="9"/>
     </row>
-    <row r="332" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="9" t="b">
         <v>1</v>
       </c>
@@ -10575,7 +10576,7 @@
       <c r="I332" s="9"/>
       <c r="J332" s="22"/>
     </row>
-    <row r="333" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="9" t="b">
         <v>1</v>
       </c>
@@ -10597,7 +10598,7 @@
       <c r="I333" s="9"/>
       <c r="J333" s="9"/>
     </row>
-    <row r="334" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="9" t="b">
         <v>1</v>
       </c>
@@ -10623,7 +10624,7 @@
       <c r="I334" s="9"/>
       <c r="J334" s="22"/>
     </row>
-    <row r="335" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="9" t="b">
         <v>1</v>
       </c>
@@ -10649,7 +10650,7 @@
       <c r="I335" s="9"/>
       <c r="J335" s="22"/>
     </row>
-    <row r="336" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="9" t="b">
         <v>1</v>
       </c>
@@ -10675,7 +10676,7 @@
       <c r="I336" s="9"/>
       <c r="J336" s="22"/>
     </row>
-    <row r="337" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="9" t="b">
         <v>1</v>
       </c>
@@ -10701,7 +10702,7 @@
       </c>
       <c r="J337" s="9"/>
     </row>
-    <row r="338" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="9" t="b">
         <v>1</v>
       </c>
@@ -10727,7 +10728,7 @@
       <c r="I338" s="9"/>
       <c r="J338" s="9"/>
     </row>
-    <row r="339" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="9" t="b">
         <v>1</v>
       </c>
@@ -10753,7 +10754,7 @@
       <c r="I339" s="9"/>
       <c r="J339" s="9"/>
     </row>
-    <row r="340" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="9" t="b">
         <v>1</v>
       </c>
@@ -10779,7 +10780,7 @@
       </c>
       <c r="J340" s="9"/>
     </row>
-    <row r="341" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="9" t="b">
         <v>1</v>
       </c>
@@ -10805,7 +10806,7 @@
       </c>
       <c r="J341" s="9"/>
     </row>
-    <row r="342" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="9" t="b">
         <v>1</v>
       </c>
@@ -10827,7 +10828,7 @@
       <c r="I342" s="9"/>
       <c r="J342" s="9"/>
     </row>
-    <row r="343" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="9" t="b">
         <v>1</v>
       </c>
@@ -10851,7 +10852,7 @@
       <c r="I343" s="9"/>
       <c r="J343" s="9"/>
     </row>
-    <row r="344" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="9" t="b">
         <v>0</v>
       </c>
@@ -10875,7 +10876,7 @@
       <c r="I344" s="9"/>
       <c r="J344" s="9"/>
     </row>
-    <row r="345" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="9" t="b">
         <v>0</v>
       </c>
@@ -10897,7 +10898,7 @@
       <c r="I345" s="9"/>
       <c r="J345" s="9"/>
     </row>
-    <row r="346" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="9" t="b">
         <v>0</v>
       </c>
@@ -10921,7 +10922,7 @@
       <c r="I346" s="9"/>
       <c r="J346" s="9"/>
     </row>
-    <row r="347" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="9" t="b">
         <v>0</v>
       </c>
@@ -10947,7 +10948,7 @@
       <c r="I347" s="9"/>
       <c r="J347" s="9"/>
     </row>
-    <row r="348" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="9" t="b">
         <v>0</v>
       </c>
@@ -10973,7 +10974,7 @@
       <c r="I348" s="9"/>
       <c r="J348" s="9"/>
     </row>
-    <row r="349" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="9" t="b">
         <v>0</v>
       </c>
@@ -10997,7 +10998,7 @@
       <c r="I349" s="9"/>
       <c r="J349" s="9"/>
     </row>
-    <row r="350" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="9" t="b">
         <v>1</v>
       </c>
@@ -11021,7 +11022,7 @@
       <c r="I350" s="9"/>
       <c r="J350" s="9"/>
     </row>
-    <row r="351" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="9" t="b">
         <v>1</v>
       </c>
@@ -11045,7 +11046,7 @@
       <c r="I351" s="9"/>
       <c r="J351" s="9"/>
     </row>
-    <row r="352" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="9" t="b">
         <v>1</v>
       </c>
@@ -11069,7 +11070,7 @@
       <c r="I352" s="9"/>
       <c r="J352" s="9"/>
     </row>
-    <row r="353" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="9" t="b">
         <v>1</v>
       </c>
@@ -11095,7 +11096,7 @@
       <c r="I353" s="9"/>
       <c r="J353" s="9"/>
     </row>
-    <row r="354" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="9" t="b">
         <v>1</v>
       </c>
@@ -11119,7 +11120,7 @@
       <c r="I354" s="9"/>
       <c r="J354" s="9"/>
     </row>
-    <row r="355" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="9" t="b">
         <v>0</v>
       </c>
@@ -11141,7 +11142,7 @@
       <c r="I355" s="9"/>
       <c r="J355" s="9"/>
     </row>
-    <row r="356" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="9" t="b">
         <v>0</v>
       </c>
@@ -11165,7 +11166,7 @@
       <c r="I356" s="9"/>
       <c r="J356" s="9"/>
     </row>
-    <row r="357" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="9" t="b">
         <v>1</v>
       </c>
@@ -11189,7 +11190,7 @@
       <c r="I357" s="9"/>
       <c r="J357" s="9"/>
     </row>
-    <row r="358" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="9" t="b">
         <v>1</v>
       </c>
@@ -11237,7 +11238,7 @@
       <c r="I359" s="9"/>
       <c r="J359" s="9"/>
     </row>
-    <row r="360" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="9" t="b">
         <v>1</v>
       </c>
@@ -11261,7 +11262,7 @@
       <c r="I360" s="9"/>
       <c r="J360" s="9"/>
     </row>
-    <row r="361" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="9" t="b">
         <v>0</v>
       </c>
@@ -11283,7 +11284,7 @@
       <c r="I361" s="9"/>
       <c r="J361" s="9"/>
     </row>
-    <row r="362" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="9" t="b">
         <v>0</v>
       </c>
@@ -11307,7 +11308,7 @@
       <c r="I362" s="9"/>
       <c r="J362" s="9"/>
     </row>
-    <row r="363" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="9" t="b">
         <v>0</v>
       </c>
@@ -11331,7 +11332,7 @@
       <c r="I363" s="9"/>
       <c r="J363" s="9"/>
     </row>
-    <row r="364" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="9" t="b">
         <v>0</v>
       </c>
@@ -11357,7 +11358,7 @@
       <c r="I364" s="9"/>
       <c r="J364" s="9"/>
     </row>
-    <row r="365" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="9" t="b">
         <v>0</v>
       </c>
@@ -11381,7 +11382,7 @@
       <c r="I365" s="9"/>
       <c r="J365" s="9"/>
     </row>
-    <row r="366" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="9" t="b">
         <v>0</v>
       </c>
@@ -11405,7 +11406,7 @@
       <c r="I366" s="9"/>
       <c r="J366" s="9"/>
     </row>
-    <row r="367" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="9" t="b">
         <v>0</v>
       </c>
@@ -11427,7 +11428,7 @@
       <c r="I367" s="9"/>
       <c r="J367" s="9"/>
     </row>
-    <row r="368" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="9" t="b">
         <v>1</v>
       </c>
@@ -11451,7 +11452,7 @@
       <c r="I368" s="9"/>
       <c r="J368" s="9"/>
     </row>
-    <row r="369" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="9" t="b">
         <v>1</v>
       </c>
@@ -11475,7 +11476,7 @@
       <c r="I369" s="9"/>
       <c r="J369" s="9"/>
     </row>
-    <row r="370" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="9" t="b">
         <v>1</v>
       </c>
@@ -11501,7 +11502,7 @@
       <c r="I370" s="9"/>
       <c r="J370" s="9"/>
     </row>
-    <row r="371" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="9" t="b">
         <v>1</v>
       </c>
@@ -11527,7 +11528,7 @@
       <c r="I371" s="9"/>
       <c r="J371" s="9"/>
     </row>
-    <row r="372" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="9" t="b">
         <v>0</v>
       </c>
@@ -11551,7 +11552,7 @@
       <c r="I372" s="9"/>
       <c r="J372" s="9"/>
     </row>
-    <row r="373" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="9" t="b">
         <v>0</v>
       </c>
@@ -11575,7 +11576,7 @@
       <c r="I373" s="9"/>
       <c r="J373" s="9"/>
     </row>
-    <row r="374" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="9" t="b">
         <v>0</v>
       </c>
@@ -11599,7 +11600,7 @@
       <c r="I374" s="9"/>
       <c r="J374" s="9"/>
     </row>
-    <row r="375" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="9" t="b">
         <v>0</v>
       </c>
@@ -11623,7 +11624,7 @@
       <c r="I375" s="9"/>
       <c r="J375" s="9"/>
     </row>
-    <row r="376" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="9" t="b">
         <v>1</v>
       </c>
@@ -11651,7 +11652,7 @@
       </c>
       <c r="J376" s="22"/>
     </row>
-    <row r="377" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="9" t="b">
         <v>1</v>
       </c>
@@ -11675,7 +11676,7 @@
       <c r="I377" s="9"/>
       <c r="J377" s="9"/>
     </row>
-    <row r="378" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="9" t="b">
         <v>1</v>
       </c>
@@ -11699,7 +11700,7 @@
       <c r="I378" s="9"/>
       <c r="J378" s="9"/>
     </row>
-    <row r="379" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="9" t="b">
         <v>0</v>
       </c>
@@ -11725,7 +11726,7 @@
       <c r="I379" s="9"/>
       <c r="J379" s="9"/>
     </row>
-    <row r="380" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="9" t="b">
         <v>0</v>
       </c>
@@ -11751,7 +11752,7 @@
       <c r="I380" s="9"/>
       <c r="J380" s="9"/>
     </row>
-    <row r="381" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="9" t="b">
         <v>0</v>
       </c>
@@ -11773,7 +11774,7 @@
       <c r="I381" s="9"/>
       <c r="J381" s="22"/>
     </row>
-    <row r="382" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="9" t="b">
         <v>0</v>
       </c>
@@ -11795,7 +11796,7 @@
       <c r="I382" s="9"/>
       <c r="J382" s="9"/>
     </row>
-    <row r="383" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="9" t="b">
         <v>0</v>
       </c>
@@ -11821,7 +11822,7 @@
       <c r="I383" s="9"/>
       <c r="J383" s="9"/>
     </row>
-    <row r="384" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="9" t="b">
         <v>0</v>
       </c>
@@ -11845,7 +11846,7 @@
       <c r="I384" s="9"/>
       <c r="J384" s="9"/>
     </row>
-    <row r="385" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="9" t="b">
         <v>0</v>
       </c>
@@ -11869,7 +11870,7 @@
       <c r="I385" s="9"/>
       <c r="J385" s="9"/>
     </row>
-    <row r="386" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="9" t="b">
         <v>0</v>
       </c>
@@ -11893,7 +11894,7 @@
       <c r="I386" s="9"/>
       <c r="J386" s="9"/>
     </row>
-    <row r="387" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="9" t="b">
         <v>1</v>
       </c>
@@ -11919,7 +11920,7 @@
       <c r="I387" s="9"/>
       <c r="J387" s="9"/>
     </row>
-    <row r="388" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="9" t="b">
         <v>0</v>
       </c>
@@ -11941,7 +11942,7 @@
       <c r="I388" s="9"/>
       <c r="J388" s="9"/>
     </row>
-    <row r="389" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="9" t="b">
         <v>0</v>
       </c>
@@ -11965,7 +11966,7 @@
       <c r="I389" s="9"/>
       <c r="J389" s="9"/>
     </row>
-    <row r="390" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="9" t="b">
         <v>1</v>
       </c>
@@ -11989,7 +11990,7 @@
       <c r="I390" s="9"/>
       <c r="J390" s="9"/>
     </row>
-    <row r="391" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="9" t="b">
         <v>0</v>
       </c>
@@ -12013,7 +12014,7 @@
       <c r="I391" s="9"/>
       <c r="J391" s="9"/>
     </row>
-    <row r="392" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="9" t="b">
         <v>1</v>
       </c>
@@ -12039,7 +12040,7 @@
       <c r="I392" s="9"/>
       <c r="J392" s="9"/>
     </row>
-    <row r="393" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="9" t="b">
         <v>1</v>
       </c>
@@ -12067,7 +12068,7 @@
       <c r="I393" s="9"/>
       <c r="J393" s="9"/>
     </row>
-    <row r="394" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="9" t="b">
         <v>1</v>
       </c>
@@ -12093,7 +12094,7 @@
       <c r="I394" s="9"/>
       <c r="J394" s="9"/>
     </row>
-    <row r="395" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="9" t="b">
         <v>1</v>
       </c>
@@ -12119,7 +12120,7 @@
       <c r="I395" s="9"/>
       <c r="J395" s="9"/>
     </row>
-    <row r="396" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="9" t="b">
         <v>1</v>
       </c>
@@ -12145,7 +12146,7 @@
       <c r="I396" s="9"/>
       <c r="J396" s="9"/>
     </row>
-    <row r="397" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="9" t="b">
         <v>1</v>
       </c>
@@ -12169,7 +12170,7 @@
       <c r="I397" s="9"/>
       <c r="J397" s="9"/>
     </row>
-    <row r="398" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="9" t="b">
         <v>1</v>
       </c>
@@ -12193,7 +12194,7 @@
       <c r="I398" s="9"/>
       <c r="J398" s="9"/>
     </row>
-    <row r="399" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="9" t="b">
         <v>1</v>
       </c>
@@ -12219,7 +12220,7 @@
       <c r="I399" s="9"/>
       <c r="J399" s="9"/>
     </row>
-    <row r="400" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="9" t="b">
         <v>1</v>
       </c>
@@ -12243,7 +12244,7 @@
       <c r="I400" s="9"/>
       <c r="J400" s="9"/>
     </row>
-    <row r="401" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="9" t="b">
         <v>1</v>
       </c>
@@ -12267,7 +12268,7 @@
       <c r="I401" s="9"/>
       <c r="J401" s="9"/>
     </row>
-    <row r="402" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="9" t="b">
         <v>1</v>
       </c>
@@ -12291,7 +12292,7 @@
       <c r="I402" s="9"/>
       <c r="J402" s="9"/>
     </row>
-    <row r="403" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="9" t="b">
         <v>1</v>
       </c>
@@ -12315,7 +12316,7 @@
       <c r="I403" s="9"/>
       <c r="J403" s="9"/>
     </row>
-    <row r="404" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="9" t="b">
         <v>1</v>
       </c>
@@ -12343,7 +12344,7 @@
       </c>
       <c r="J404" s="9"/>
     </row>
-    <row r="405" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="9" t="b">
         <v>1</v>
       </c>
@@ -12369,7 +12370,7 @@
       <c r="I405" s="9"/>
       <c r="J405" s="9"/>
     </row>
-    <row r="406" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="9" t="b">
         <v>1</v>
       </c>
@@ -12393,7 +12394,7 @@
       <c r="I406" s="9"/>
       <c r="J406" s="9"/>
     </row>
-    <row r="407" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="9" t="b">
         <v>0</v>
       </c>
@@ -12417,7 +12418,7 @@
       <c r="I407" s="9"/>
       <c r="J407" s="9"/>
     </row>
-    <row r="408" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="9" t="b">
         <v>1</v>
       </c>
@@ -12441,7 +12442,7 @@
       <c r="I408" s="9"/>
       <c r="J408" s="9"/>
     </row>
-    <row r="409" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="9" t="b">
         <v>1</v>
       </c>
@@ -12467,7 +12468,7 @@
       <c r="I409" s="9"/>
       <c r="J409" s="9"/>
     </row>
-    <row r="410" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="9" t="b">
         <v>0</v>
       </c>
@@ -12491,7 +12492,7 @@
       <c r="I410" s="9"/>
       <c r="J410" s="9"/>
     </row>
-    <row r="411" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="9" t="b">
         <v>0</v>
       </c>
@@ -12515,7 +12516,7 @@
       <c r="I411" s="9"/>
       <c r="J411" s="9"/>
     </row>
-    <row r="412" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="9" t="b">
         <v>1</v>
       </c>
@@ -12539,7 +12540,7 @@
       <c r="I412" s="9"/>
       <c r="J412" s="9"/>
     </row>
-    <row r="413" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="8" t="b">
         <v>0</v>
       </c>
@@ -12561,7 +12562,7 @@
       <c r="I413" s="9"/>
       <c r="J413" s="9"/>
     </row>
-    <row r="414" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="8" t="b">
         <v>0</v>
       </c>
@@ -12583,7 +12584,7 @@
       <c r="I414" s="9"/>
       <c r="J414" s="9"/>
     </row>
-    <row r="415" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="9" t="b">
         <v>0</v>
       </c>
@@ -12607,7 +12608,7 @@
       <c r="I415" s="9"/>
       <c r="J415" s="9"/>
     </row>
-    <row r="416" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="9" t="b">
         <v>0</v>
       </c>
@@ -12631,7 +12632,7 @@
       <c r="I416" s="9"/>
       <c r="J416" s="9"/>
     </row>
-    <row r="417" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="9" t="b">
         <v>0</v>
       </c>
@@ -12655,7 +12656,7 @@
       <c r="I417" s="9"/>
       <c r="J417" s="9"/>
     </row>
-    <row r="418" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="9" t="b">
         <v>0</v>
       </c>
@@ -12679,7 +12680,7 @@
       <c r="I418" s="9"/>
       <c r="J418" s="9"/>
     </row>
-    <row r="419" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="9" t="b">
         <v>1</v>
       </c>
@@ -12705,7 +12706,7 @@
       <c r="I419" s="9"/>
       <c r="J419" s="9"/>
     </row>
-    <row r="420" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="9" t="b">
         <v>1</v>
       </c>
@@ -12731,7 +12732,7 @@
       <c r="I420" s="9"/>
       <c r="J420" s="9"/>
     </row>
-    <row r="421" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="9" t="b">
         <v>1</v>
       </c>
@@ -12755,7 +12756,7 @@
       <c r="I421" s="9"/>
       <c r="J421" s="9"/>
     </row>
-    <row r="422" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="9" t="b">
         <v>1</v>
       </c>
@@ -12781,7 +12782,7 @@
       <c r="I422" s="9"/>
       <c r="J422" s="9"/>
     </row>
-    <row r="423" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="9" t="b">
         <v>1</v>
       </c>
@@ -12807,7 +12808,7 @@
       <c r="I423" s="9"/>
       <c r="J423" s="9"/>
     </row>
-    <row r="424" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="9" t="b">
         <v>0</v>
       </c>
@@ -12829,7 +12830,7 @@
       <c r="I424" s="9"/>
       <c r="J424" s="9"/>
     </row>
-    <row r="425" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="9" t="b">
         <v>0</v>
       </c>
@@ -12851,7 +12852,7 @@
       <c r="I425" s="9"/>
       <c r="J425" s="9"/>
     </row>
-    <row r="426" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="38"/>
       <c r="B426" s="38"/>
       <c r="C426" s="38"/>
@@ -12866,2868 +12867,2878 @@
       <c r="I426" s="38"/>
       <c r="J426" s="9"/>
     </row>
-    <row r="427" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D427" s="32"/>
       <c r="F427" s="33"/>
       <c r="J427" s="17"/>
     </row>
-    <row r="428" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D428" s="32"/>
       <c r="F428" s="33"/>
       <c r="J428" s="17"/>
     </row>
-    <row r="429" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D429" s="32"/>
       <c r="F429" s="33"/>
       <c r="J429" s="17"/>
     </row>
-    <row r="430" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D430" s="32"/>
       <c r="F430" s="33"/>
       <c r="J430" s="17"/>
     </row>
-    <row r="431" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D431" s="32"/>
       <c r="F431" s="33"/>
       <c r="J431" s="17"/>
     </row>
-    <row r="432" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D432" s="32"/>
       <c r="F432" s="33"/>
       <c r="J432" s="17"/>
     </row>
-    <row r="433" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D433" s="32"/>
       <c r="F433" s="33"/>
       <c r="J433" s="17"/>
     </row>
-    <row r="434" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D434" s="32"/>
       <c r="F434" s="33"/>
       <c r="J434" s="17"/>
     </row>
-    <row r="435" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D435" s="32"/>
       <c r="F435" s="33"/>
       <c r="J435" s="17"/>
     </row>
-    <row r="436" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D436" s="32"/>
       <c r="F436" s="33"/>
       <c r="J436" s="17"/>
     </row>
-    <row r="437" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D437" s="32"/>
       <c r="F437" s="33"/>
       <c r="J437" s="17"/>
     </row>
-    <row r="438" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D438" s="32"/>
       <c r="F438" s="33"/>
       <c r="J438" s="17"/>
     </row>
-    <row r="439" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D439" s="32"/>
       <c r="F439" s="33"/>
       <c r="J439" s="17"/>
     </row>
-    <row r="440" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D440" s="32"/>
       <c r="F440" s="33"/>
       <c r="J440" s="17"/>
     </row>
-    <row r="441" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D441" s="32"/>
       <c r="F441" s="33"/>
       <c r="J441" s="17"/>
     </row>
-    <row r="442" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D442" s="32"/>
       <c r="F442" s="33"/>
       <c r="J442" s="17"/>
     </row>
-    <row r="443" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D443" s="32"/>
       <c r="F443" s="33"/>
       <c r="J443" s="17"/>
     </row>
-    <row r="444" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D444" s="32"/>
       <c r="F444" s="33"/>
       <c r="J444" s="17"/>
     </row>
-    <row r="445" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D445" s="32"/>
       <c r="F445" s="33"/>
       <c r="J445" s="17"/>
     </row>
-    <row r="446" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D446" s="32"/>
       <c r="F446" s="33"/>
       <c r="J446" s="17"/>
     </row>
-    <row r="447" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D447" s="32"/>
       <c r="F447" s="33"/>
       <c r="J447" s="17"/>
     </row>
-    <row r="448" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D448" s="32"/>
       <c r="F448" s="33"/>
       <c r="J448" s="17"/>
     </row>
-    <row r="449" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D449" s="32"/>
       <c r="F449" s="33"/>
       <c r="J449" s="17"/>
     </row>
-    <row r="450" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D450" s="32"/>
       <c r="F450" s="33"/>
       <c r="J450" s="17"/>
     </row>
-    <row r="451" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D451" s="32"/>
       <c r="F451" s="33"/>
       <c r="J451" s="17"/>
     </row>
-    <row r="452" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D452" s="32"/>
       <c r="F452" s="33"/>
       <c r="J452" s="17"/>
     </row>
-    <row r="453" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D453" s="32"/>
       <c r="F453" s="33"/>
       <c r="J453" s="17"/>
     </row>
-    <row r="454" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D454" s="32"/>
       <c r="F454" s="33"/>
       <c r="J454" s="17"/>
     </row>
-    <row r="455" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D455" s="32"/>
       <c r="F455" s="33"/>
       <c r="J455" s="17"/>
     </row>
-    <row r="456" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D456" s="32"/>
       <c r="F456" s="33"/>
       <c r="J456" s="17"/>
     </row>
-    <row r="457" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D457" s="32"/>
       <c r="F457" s="33"/>
       <c r="J457" s="17"/>
     </row>
-    <row r="458" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D458" s="32"/>
       <c r="F458" s="33"/>
       <c r="J458" s="17"/>
     </row>
-    <row r="459" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D459" s="32"/>
       <c r="F459" s="33"/>
       <c r="J459" s="17"/>
     </row>
-    <row r="460" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D460" s="32"/>
       <c r="F460" s="33"/>
       <c r="J460" s="17"/>
     </row>
-    <row r="461" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D461" s="32"/>
       <c r="F461" s="33"/>
       <c r="J461" s="17"/>
     </row>
-    <row r="462" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D462" s="32"/>
       <c r="F462" s="33"/>
       <c r="J462" s="17"/>
     </row>
-    <row r="463" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D463" s="32"/>
       <c r="F463" s="33"/>
       <c r="J463" s="17"/>
     </row>
-    <row r="464" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D464" s="32"/>
       <c r="F464" s="33"/>
       <c r="J464" s="17"/>
     </row>
-    <row r="465" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D465" s="32"/>
       <c r="F465" s="33"/>
       <c r="J465" s="17"/>
     </row>
-    <row r="466" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D466" s="32"/>
       <c r="F466" s="33"/>
       <c r="J466" s="17"/>
     </row>
-    <row r="467" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D467" s="32"/>
       <c r="F467" s="33"/>
       <c r="J467" s="17"/>
     </row>
-    <row r="468" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D468" s="32"/>
       <c r="F468" s="33"/>
       <c r="J468" s="17"/>
     </row>
-    <row r="469" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D469" s="32"/>
       <c r="F469" s="33"/>
       <c r="J469" s="17"/>
     </row>
-    <row r="470" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D470" s="32"/>
       <c r="F470" s="33"/>
       <c r="J470" s="17"/>
     </row>
-    <row r="471" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D471" s="32"/>
       <c r="F471" s="33"/>
       <c r="J471" s="17"/>
     </row>
-    <row r="472" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D472" s="32"/>
       <c r="F472" s="33"/>
       <c r="J472" s="17"/>
     </row>
-    <row r="473" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D473" s="32"/>
       <c r="F473" s="33"/>
       <c r="J473" s="17"/>
     </row>
-    <row r="474" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D474" s="32"/>
       <c r="F474" s="33"/>
       <c r="J474" s="17"/>
     </row>
-    <row r="475" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D475" s="32"/>
       <c r="F475" s="33"/>
       <c r="J475" s="17"/>
     </row>
-    <row r="476" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D476" s="32"/>
       <c r="F476" s="33"/>
       <c r="J476" s="17"/>
     </row>
-    <row r="477" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D477" s="32"/>
       <c r="F477" s="33"/>
       <c r="J477" s="17"/>
     </row>
-    <row r="478" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D478" s="32"/>
       <c r="F478" s="33"/>
       <c r="J478" s="17"/>
     </row>
-    <row r="479" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D479" s="32"/>
       <c r="F479" s="33"/>
       <c r="J479" s="17"/>
     </row>
-    <row r="480" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D480" s="32"/>
       <c r="F480" s="33"/>
       <c r="J480" s="17"/>
     </row>
-    <row r="481" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D481" s="32"/>
       <c r="F481" s="33"/>
       <c r="J481" s="17"/>
     </row>
-    <row r="482" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D482" s="32"/>
       <c r="F482" s="33"/>
       <c r="J482" s="17"/>
     </row>
-    <row r="483" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D483" s="32"/>
       <c r="F483" s="33"/>
       <c r="J483" s="17"/>
     </row>
-    <row r="484" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D484" s="32"/>
       <c r="F484" s="33"/>
       <c r="J484" s="17"/>
     </row>
-    <row r="485" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D485" s="32"/>
       <c r="F485" s="33"/>
       <c r="J485" s="17"/>
     </row>
-    <row r="486" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D486" s="32"/>
       <c r="F486" s="33"/>
       <c r="J486" s="17"/>
     </row>
-    <row r="487" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D487" s="32"/>
       <c r="F487" s="33"/>
       <c r="J487" s="17"/>
     </row>
-    <row r="488" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D488" s="32"/>
       <c r="F488" s="33"/>
       <c r="J488" s="17"/>
     </row>
-    <row r="489" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D489" s="32"/>
       <c r="F489" s="33"/>
       <c r="J489" s="17"/>
     </row>
-    <row r="490" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D490" s="32"/>
       <c r="F490" s="33"/>
       <c r="J490" s="17"/>
     </row>
-    <row r="491" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D491" s="32"/>
       <c r="F491" s="33"/>
       <c r="J491" s="17"/>
     </row>
-    <row r="492" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D492" s="32"/>
       <c r="F492" s="33"/>
       <c r="J492" s="17"/>
     </row>
-    <row r="493" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D493" s="32"/>
       <c r="F493" s="33"/>
       <c r="J493" s="17"/>
     </row>
-    <row r="494" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D494" s="32"/>
       <c r="F494" s="33"/>
       <c r="J494" s="17"/>
     </row>
-    <row r="495" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D495" s="32"/>
       <c r="F495" s="33"/>
       <c r="J495" s="17"/>
     </row>
-    <row r="496" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D496" s="32"/>
       <c r="F496" s="33"/>
       <c r="J496" s="17"/>
     </row>
-    <row r="497" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D497" s="32"/>
       <c r="F497" s="33"/>
       <c r="J497" s="17"/>
     </row>
-    <row r="498" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D498" s="32"/>
       <c r="F498" s="33"/>
       <c r="J498" s="17"/>
     </row>
-    <row r="499" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D499" s="32"/>
       <c r="F499" s="33"/>
       <c r="J499" s="17"/>
     </row>
-    <row r="500" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D500" s="32"/>
       <c r="F500" s="33"/>
       <c r="J500" s="17"/>
     </row>
-    <row r="501" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D501" s="32"/>
       <c r="F501" s="33"/>
       <c r="J501" s="17"/>
     </row>
-    <row r="502" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D502" s="32"/>
       <c r="F502" s="33"/>
       <c r="J502" s="17"/>
     </row>
-    <row r="503" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D503" s="32"/>
       <c r="F503" s="33"/>
       <c r="J503" s="17"/>
     </row>
-    <row r="504" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D504" s="32"/>
       <c r="F504" s="33"/>
       <c r="J504" s="17"/>
     </row>
-    <row r="505" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D505" s="32"/>
       <c r="F505" s="33"/>
       <c r="J505" s="17"/>
     </row>
-    <row r="506" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D506" s="32"/>
       <c r="F506" s="33"/>
       <c r="J506" s="17"/>
     </row>
-    <row r="507" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D507" s="32"/>
       <c r="F507" s="33"/>
       <c r="J507" s="17"/>
     </row>
-    <row r="508" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D508" s="32"/>
       <c r="F508" s="33"/>
       <c r="J508" s="17"/>
     </row>
-    <row r="509" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D509" s="32"/>
       <c r="F509" s="33"/>
       <c r="J509" s="17"/>
     </row>
-    <row r="510" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D510" s="32"/>
       <c r="F510" s="33"/>
       <c r="J510" s="17"/>
     </row>
-    <row r="511" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D511" s="32"/>
       <c r="F511" s="33"/>
       <c r="J511" s="17"/>
     </row>
-    <row r="512" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D512" s="32"/>
       <c r="F512" s="33"/>
       <c r="J512" s="17"/>
     </row>
-    <row r="513" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D513" s="32"/>
       <c r="F513" s="33"/>
       <c r="J513" s="17"/>
     </row>
-    <row r="514" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D514" s="32"/>
       <c r="F514" s="33"/>
       <c r="J514" s="17"/>
     </row>
-    <row r="515" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D515" s="32"/>
       <c r="F515" s="33"/>
       <c r="J515" s="17"/>
     </row>
-    <row r="516" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D516" s="32"/>
       <c r="F516" s="33"/>
       <c r="J516" s="17"/>
     </row>
-    <row r="517" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D517" s="32"/>
       <c r="F517" s="33"/>
       <c r="J517" s="17"/>
     </row>
-    <row r="518" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D518" s="32"/>
       <c r="F518" s="33"/>
       <c r="J518" s="17"/>
     </row>
-    <row r="519" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D519" s="32"/>
       <c r="F519" s="33"/>
       <c r="J519" s="17"/>
     </row>
-    <row r="520" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D520" s="32"/>
       <c r="F520" s="33"/>
       <c r="J520" s="17"/>
     </row>
-    <row r="521" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D521" s="32"/>
       <c r="F521" s="33"/>
       <c r="J521" s="17"/>
     </row>
-    <row r="522" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D522" s="32"/>
       <c r="F522" s="33"/>
       <c r="J522" s="17"/>
     </row>
-    <row r="523" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D523" s="32"/>
       <c r="F523" s="33"/>
       <c r="J523" s="17"/>
     </row>
-    <row r="524" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D524" s="32"/>
       <c r="F524" s="33"/>
       <c r="J524" s="17"/>
     </row>
-    <row r="525" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D525" s="32"/>
       <c r="F525" s="33"/>
       <c r="J525" s="17"/>
     </row>
-    <row r="526" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D526" s="32"/>
       <c r="F526" s="33"/>
       <c r="J526" s="17"/>
     </row>
-    <row r="527" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D527" s="32"/>
       <c r="F527" s="33"/>
       <c r="J527" s="17"/>
     </row>
-    <row r="528" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D528" s="32"/>
       <c r="F528" s="33"/>
       <c r="J528" s="17"/>
     </row>
-    <row r="529" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D529" s="32"/>
       <c r="F529" s="33"/>
       <c r="J529" s="17"/>
     </row>
-    <row r="530" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D530" s="32"/>
       <c r="F530" s="33"/>
       <c r="J530" s="17"/>
     </row>
-    <row r="531" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D531" s="32"/>
       <c r="F531" s="33"/>
       <c r="J531" s="17"/>
     </row>
-    <row r="532" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D532" s="32"/>
       <c r="F532" s="33"/>
       <c r="J532" s="17"/>
     </row>
-    <row r="533" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D533" s="32"/>
       <c r="F533" s="33"/>
       <c r="J533" s="17"/>
     </row>
-    <row r="534" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D534" s="32"/>
       <c r="F534" s="33"/>
       <c r="J534" s="17"/>
     </row>
-    <row r="535" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D535" s="32"/>
       <c r="F535" s="33"/>
       <c r="J535" s="17"/>
     </row>
-    <row r="536" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D536" s="32"/>
       <c r="F536" s="33"/>
       <c r="J536" s="17"/>
     </row>
-    <row r="537" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D537" s="32"/>
       <c r="F537" s="33"/>
       <c r="J537" s="17"/>
     </row>
-    <row r="538" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D538" s="32"/>
       <c r="F538" s="33"/>
       <c r="J538" s="17"/>
     </row>
-    <row r="539" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D539" s="32"/>
       <c r="F539" s="33"/>
       <c r="J539" s="17"/>
     </row>
-    <row r="540" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D540" s="32"/>
       <c r="F540" s="33"/>
       <c r="J540" s="17"/>
     </row>
-    <row r="541" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D541" s="32"/>
       <c r="F541" s="33"/>
       <c r="J541" s="17"/>
     </row>
-    <row r="542" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D542" s="32"/>
       <c r="F542" s="33"/>
       <c r="J542" s="17"/>
     </row>
-    <row r="543" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D543" s="32"/>
       <c r="F543" s="33"/>
       <c r="J543" s="17"/>
     </row>
-    <row r="544" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D544" s="32"/>
       <c r="F544" s="33"/>
       <c r="J544" s="17"/>
     </row>
-    <row r="545" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D545" s="32"/>
       <c r="F545" s="33"/>
       <c r="J545" s="17"/>
     </row>
-    <row r="546" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D546" s="32"/>
       <c r="F546" s="33"/>
       <c r="J546" s="17"/>
     </row>
-    <row r="547" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D547" s="32"/>
       <c r="F547" s="33"/>
       <c r="J547" s="17"/>
     </row>
-    <row r="548" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D548" s="32"/>
       <c r="F548" s="33"/>
       <c r="J548" s="17"/>
     </row>
-    <row r="549" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D549" s="32"/>
       <c r="F549" s="33"/>
       <c r="J549" s="17"/>
     </row>
-    <row r="550" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D550" s="32"/>
       <c r="F550" s="33"/>
       <c r="J550" s="17"/>
     </row>
-    <row r="551" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D551" s="32"/>
       <c r="F551" s="33"/>
       <c r="J551" s="17"/>
     </row>
-    <row r="552" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D552" s="32"/>
       <c r="F552" s="33"/>
       <c r="J552" s="17"/>
     </row>
-    <row r="553" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D553" s="32"/>
       <c r="F553" s="33"/>
       <c r="J553" s="17"/>
     </row>
-    <row r="554" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D554" s="32"/>
       <c r="F554" s="33"/>
       <c r="J554" s="17"/>
     </row>
-    <row r="555" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D555" s="32"/>
       <c r="F555" s="33"/>
       <c r="J555" s="17"/>
     </row>
-    <row r="556" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D556" s="32"/>
       <c r="F556" s="33"/>
       <c r="J556" s="17"/>
     </row>
-    <row r="557" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D557" s="32"/>
       <c r="F557" s="33"/>
       <c r="J557" s="17"/>
     </row>
-    <row r="558" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D558" s="32"/>
       <c r="F558" s="33"/>
       <c r="J558" s="17"/>
     </row>
-    <row r="559" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D559" s="32"/>
       <c r="F559" s="33"/>
       <c r="J559" s="17"/>
     </row>
-    <row r="560" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D560" s="32"/>
       <c r="F560" s="33"/>
       <c r="J560" s="17"/>
     </row>
-    <row r="561" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D561" s="32"/>
       <c r="F561" s="33"/>
       <c r="J561" s="17"/>
     </row>
-    <row r="562" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D562" s="32"/>
       <c r="F562" s="33"/>
       <c r="J562" s="17"/>
     </row>
-    <row r="563" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D563" s="32"/>
       <c r="F563" s="33"/>
       <c r="J563" s="17"/>
     </row>
-    <row r="564" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D564" s="32"/>
       <c r="F564" s="33"/>
       <c r="J564" s="17"/>
     </row>
-    <row r="565" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D565" s="32"/>
       <c r="F565" s="33"/>
       <c r="J565" s="17"/>
     </row>
-    <row r="566" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D566" s="32"/>
       <c r="F566" s="33"/>
       <c r="J566" s="17"/>
     </row>
-    <row r="567" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D567" s="32"/>
       <c r="F567" s="33"/>
       <c r="J567" s="17"/>
     </row>
-    <row r="568" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D568" s="32"/>
       <c r="F568" s="33"/>
       <c r="J568" s="17"/>
     </row>
-    <row r="569" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D569" s="32"/>
       <c r="F569" s="33"/>
       <c r="J569" s="17"/>
     </row>
-    <row r="570" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D570" s="32"/>
       <c r="F570" s="33"/>
       <c r="J570" s="17"/>
     </row>
-    <row r="571" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D571" s="32"/>
       <c r="F571" s="33"/>
       <c r="J571" s="17"/>
     </row>
-    <row r="572" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D572" s="32"/>
       <c r="F572" s="33"/>
       <c r="J572" s="17"/>
     </row>
-    <row r="573" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D573" s="32"/>
       <c r="F573" s="33"/>
       <c r="J573" s="17"/>
     </row>
-    <row r="574" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D574" s="32"/>
       <c r="F574" s="33"/>
       <c r="J574" s="17"/>
     </row>
-    <row r="575" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D575" s="32"/>
       <c r="F575" s="33"/>
       <c r="J575" s="17"/>
     </row>
-    <row r="576" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D576" s="32"/>
       <c r="F576" s="33"/>
       <c r="J576" s="17"/>
     </row>
-    <row r="577" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D577" s="32"/>
       <c r="F577" s="33"/>
       <c r="J577" s="17"/>
     </row>
-    <row r="578" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D578" s="32"/>
       <c r="F578" s="33"/>
       <c r="J578" s="17"/>
     </row>
-    <row r="579" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D579" s="32"/>
       <c r="F579" s="33"/>
       <c r="J579" s="17"/>
     </row>
-    <row r="580" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D580" s="32"/>
       <c r="F580" s="33"/>
       <c r="J580" s="17"/>
     </row>
-    <row r="581" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D581" s="32"/>
       <c r="F581" s="33"/>
       <c r="J581" s="17"/>
     </row>
-    <row r="582" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D582" s="32"/>
       <c r="F582" s="33"/>
       <c r="J582" s="17"/>
     </row>
-    <row r="583" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D583" s="32"/>
       <c r="F583" s="33"/>
       <c r="J583" s="17"/>
     </row>
-    <row r="584" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D584" s="32"/>
       <c r="F584" s="33"/>
       <c r="J584" s="17"/>
     </row>
-    <row r="585" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D585" s="32"/>
       <c r="F585" s="33"/>
       <c r="J585" s="17"/>
     </row>
-    <row r="586" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D586" s="32"/>
       <c r="F586" s="33"/>
       <c r="J586" s="17"/>
     </row>
-    <row r="587" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D587" s="32"/>
       <c r="F587" s="33"/>
       <c r="J587" s="17"/>
     </row>
-    <row r="588" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D588" s="32"/>
       <c r="F588" s="33"/>
       <c r="J588" s="17"/>
     </row>
-    <row r="589" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D589" s="32"/>
       <c r="F589" s="33"/>
       <c r="J589" s="17"/>
     </row>
-    <row r="590" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D590" s="32"/>
       <c r="F590" s="33"/>
       <c r="J590" s="17"/>
     </row>
-    <row r="591" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D591" s="32"/>
       <c r="F591" s="33"/>
       <c r="J591" s="17"/>
     </row>
-    <row r="592" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D592" s="32"/>
       <c r="F592" s="33"/>
       <c r="J592" s="17"/>
     </row>
-    <row r="593" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D593" s="32"/>
       <c r="F593" s="33"/>
       <c r="J593" s="17"/>
     </row>
-    <row r="594" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D594" s="32"/>
       <c r="F594" s="33"/>
       <c r="J594" s="17"/>
     </row>
-    <row r="595" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D595" s="32"/>
       <c r="F595" s="33"/>
       <c r="J595" s="17"/>
     </row>
-    <row r="596" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D596" s="32"/>
       <c r="F596" s="33"/>
       <c r="J596" s="17"/>
     </row>
-    <row r="597" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D597" s="32"/>
       <c r="F597" s="33"/>
       <c r="J597" s="17"/>
     </row>
-    <row r="598" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D598" s="32"/>
       <c r="F598" s="33"/>
       <c r="J598" s="17"/>
     </row>
-    <row r="599" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D599" s="32"/>
       <c r="F599" s="33"/>
       <c r="J599" s="17"/>
     </row>
-    <row r="600" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D600" s="32"/>
       <c r="F600" s="33"/>
       <c r="J600" s="17"/>
     </row>
-    <row r="601" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D601" s="32"/>
       <c r="F601" s="33"/>
       <c r="J601" s="17"/>
     </row>
-    <row r="602" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D602" s="32"/>
       <c r="F602" s="33"/>
       <c r="J602" s="17"/>
     </row>
-    <row r="603" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D603" s="32"/>
       <c r="F603" s="33"/>
       <c r="J603" s="17"/>
     </row>
-    <row r="604" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D604" s="32"/>
       <c r="F604" s="33"/>
       <c r="J604" s="17"/>
     </row>
-    <row r="605" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D605" s="32"/>
       <c r="F605" s="33"/>
       <c r="J605" s="17"/>
     </row>
-    <row r="606" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D606" s="32"/>
       <c r="F606" s="33"/>
       <c r="J606" s="17"/>
     </row>
-    <row r="607" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D607" s="32"/>
       <c r="F607" s="33"/>
       <c r="J607" s="17"/>
     </row>
-    <row r="608" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D608" s="32"/>
       <c r="F608" s="33"/>
       <c r="J608" s="17"/>
     </row>
-    <row r="609" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D609" s="32"/>
       <c r="F609" s="33"/>
       <c r="J609" s="17"/>
     </row>
-    <row r="610" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D610" s="32"/>
       <c r="F610" s="33"/>
       <c r="J610" s="17"/>
     </row>
-    <row r="611" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D611" s="32"/>
       <c r="F611" s="33"/>
       <c r="J611" s="17"/>
     </row>
-    <row r="612" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D612" s="32"/>
       <c r="F612" s="33"/>
       <c r="J612" s="17"/>
     </row>
-    <row r="613" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D613" s="32"/>
       <c r="F613" s="33"/>
       <c r="J613" s="17"/>
     </row>
-    <row r="614" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D614" s="32"/>
       <c r="F614" s="33"/>
       <c r="J614" s="17"/>
     </row>
-    <row r="615" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D615" s="32"/>
       <c r="F615" s="33"/>
       <c r="J615" s="17"/>
     </row>
-    <row r="616" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D616" s="32"/>
       <c r="F616" s="33"/>
       <c r="J616" s="17"/>
     </row>
-    <row r="617" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D617" s="32"/>
       <c r="F617" s="33"/>
       <c r="J617" s="17"/>
     </row>
-    <row r="618" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D618" s="32"/>
       <c r="F618" s="33"/>
       <c r="J618" s="17"/>
     </row>
-    <row r="619" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D619" s="32"/>
       <c r="F619" s="33"/>
       <c r="J619" s="17"/>
     </row>
-    <row r="620" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D620" s="32"/>
       <c r="F620" s="33"/>
       <c r="J620" s="17"/>
     </row>
-    <row r="621" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D621" s="32"/>
       <c r="F621" s="33"/>
       <c r="J621" s="17"/>
     </row>
-    <row r="622" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D622" s="32"/>
       <c r="F622" s="33"/>
       <c r="J622" s="17"/>
     </row>
-    <row r="623" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D623" s="32"/>
       <c r="F623" s="33"/>
       <c r="J623" s="17"/>
     </row>
-    <row r="624" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D624" s="32"/>
       <c r="F624" s="33"/>
       <c r="J624" s="17"/>
     </row>
-    <row r="625" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D625" s="32"/>
       <c r="F625" s="33"/>
       <c r="J625" s="17"/>
     </row>
-    <row r="626" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D626" s="32"/>
       <c r="F626" s="33"/>
       <c r="J626" s="17"/>
     </row>
-    <row r="627" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D627" s="32"/>
       <c r="F627" s="33"/>
       <c r="J627" s="17"/>
     </row>
-    <row r="628" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D628" s="32"/>
       <c r="F628" s="33"/>
       <c r="J628" s="17"/>
     </row>
-    <row r="629" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D629" s="32"/>
       <c r="F629" s="33"/>
       <c r="J629" s="17"/>
     </row>
-    <row r="630" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D630" s="32"/>
       <c r="F630" s="33"/>
       <c r="J630" s="17"/>
     </row>
-    <row r="631" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D631" s="32"/>
       <c r="F631" s="33"/>
       <c r="J631" s="17"/>
     </row>
-    <row r="632" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D632" s="32"/>
       <c r="F632" s="33"/>
       <c r="J632" s="17"/>
     </row>
-    <row r="633" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D633" s="32"/>
       <c r="F633" s="33"/>
       <c r="J633" s="17"/>
     </row>
-    <row r="634" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D634" s="32"/>
       <c r="F634" s="33"/>
       <c r="J634" s="17"/>
     </row>
-    <row r="635" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D635" s="32"/>
       <c r="F635" s="33"/>
       <c r="J635" s="17"/>
     </row>
-    <row r="636" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D636" s="32"/>
       <c r="F636" s="33"/>
       <c r="J636" s="17"/>
     </row>
-    <row r="637" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D637" s="32"/>
       <c r="F637" s="33"/>
       <c r="J637" s="17"/>
     </row>
-    <row r="638" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D638" s="32"/>
       <c r="F638" s="33"/>
       <c r="J638" s="17"/>
     </row>
-    <row r="639" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D639" s="32"/>
       <c r="F639" s="33"/>
       <c r="J639" s="17"/>
     </row>
-    <row r="640" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D640" s="32"/>
       <c r="F640" s="33"/>
       <c r="J640" s="17"/>
     </row>
-    <row r="641" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D641" s="32"/>
       <c r="F641" s="33"/>
       <c r="J641" s="17"/>
     </row>
-    <row r="642" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D642" s="32"/>
       <c r="F642" s="33"/>
       <c r="J642" s="17"/>
     </row>
-    <row r="643" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D643" s="32"/>
       <c r="F643" s="33"/>
       <c r="J643" s="17"/>
     </row>
-    <row r="644" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D644" s="32"/>
       <c r="F644" s="33"/>
       <c r="J644" s="17"/>
     </row>
-    <row r="645" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D645" s="32"/>
       <c r="F645" s="33"/>
       <c r="J645" s="17"/>
     </row>
-    <row r="646" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D646" s="32"/>
       <c r="F646" s="33"/>
       <c r="J646" s="17"/>
     </row>
-    <row r="647" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D647" s="32"/>
       <c r="F647" s="33"/>
       <c r="J647" s="17"/>
     </row>
-    <row r="648" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D648" s="32"/>
       <c r="F648" s="33"/>
       <c r="J648" s="17"/>
     </row>
-    <row r="649" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D649" s="32"/>
       <c r="F649" s="33"/>
       <c r="J649" s="17"/>
     </row>
-    <row r="650" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D650" s="32"/>
       <c r="F650" s="33"/>
       <c r="J650" s="17"/>
     </row>
-    <row r="651" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D651" s="32"/>
       <c r="F651" s="33"/>
       <c r="J651" s="17"/>
     </row>
-    <row r="652" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D652" s="32"/>
       <c r="F652" s="33"/>
       <c r="J652" s="17"/>
     </row>
-    <row r="653" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D653" s="32"/>
       <c r="F653" s="33"/>
       <c r="J653" s="17"/>
     </row>
-    <row r="654" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D654" s="32"/>
       <c r="F654" s="33"/>
       <c r="J654" s="17"/>
     </row>
-    <row r="655" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D655" s="32"/>
       <c r="F655" s="33"/>
       <c r="J655" s="17"/>
     </row>
-    <row r="656" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D656" s="32"/>
       <c r="F656" s="33"/>
       <c r="J656" s="17"/>
     </row>
-    <row r="657" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D657" s="32"/>
       <c r="F657" s="33"/>
       <c r="J657" s="17"/>
     </row>
-    <row r="658" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D658" s="32"/>
       <c r="F658" s="33"/>
       <c r="J658" s="17"/>
     </row>
-    <row r="659" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D659" s="32"/>
       <c r="F659" s="33"/>
       <c r="J659" s="17"/>
     </row>
-    <row r="660" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D660" s="32"/>
       <c r="F660" s="33"/>
       <c r="J660" s="17"/>
     </row>
-    <row r="661" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D661" s="32"/>
       <c r="F661" s="33"/>
       <c r="J661" s="17"/>
     </row>
-    <row r="662" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D662" s="32"/>
       <c r="F662" s="33"/>
       <c r="J662" s="17"/>
     </row>
-    <row r="663" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D663" s="32"/>
       <c r="F663" s="33"/>
       <c r="J663" s="17"/>
     </row>
-    <row r="664" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D664" s="32"/>
       <c r="F664" s="33"/>
       <c r="J664" s="17"/>
     </row>
-    <row r="665" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D665" s="32"/>
       <c r="F665" s="33"/>
       <c r="J665" s="17"/>
     </row>
-    <row r="666" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D666" s="32"/>
       <c r="F666" s="33"/>
       <c r="J666" s="17"/>
     </row>
-    <row r="667" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D667" s="32"/>
       <c r="F667" s="33"/>
       <c r="J667" s="17"/>
     </row>
-    <row r="668" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D668" s="32"/>
       <c r="F668" s="33"/>
       <c r="J668" s="17"/>
     </row>
-    <row r="669" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D669" s="32"/>
       <c r="F669" s="33"/>
       <c r="J669" s="17"/>
     </row>
-    <row r="670" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D670" s="32"/>
       <c r="F670" s="33"/>
       <c r="J670" s="17"/>
     </row>
-    <row r="671" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D671" s="32"/>
       <c r="F671" s="33"/>
       <c r="J671" s="17"/>
     </row>
-    <row r="672" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D672" s="32"/>
       <c r="F672" s="33"/>
       <c r="J672" s="17"/>
     </row>
-    <row r="673" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D673" s="32"/>
       <c r="F673" s="33"/>
       <c r="J673" s="17"/>
     </row>
-    <row r="674" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D674" s="32"/>
       <c r="F674" s="33"/>
       <c r="J674" s="17"/>
     </row>
-    <row r="675" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D675" s="32"/>
       <c r="F675" s="33"/>
       <c r="J675" s="17"/>
     </row>
-    <row r="676" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D676" s="32"/>
       <c r="F676" s="33"/>
       <c r="J676" s="17"/>
     </row>
-    <row r="677" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D677" s="32"/>
       <c r="F677" s="33"/>
       <c r="J677" s="17"/>
     </row>
-    <row r="678" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D678" s="32"/>
       <c r="F678" s="33"/>
       <c r="J678" s="17"/>
     </row>
-    <row r="679" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D679" s="32"/>
       <c r="F679" s="33"/>
       <c r="J679" s="17"/>
     </row>
-    <row r="680" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D680" s="32"/>
       <c r="F680" s="33"/>
       <c r="J680" s="17"/>
     </row>
-    <row r="681" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D681" s="32"/>
       <c r="F681" s="33"/>
       <c r="J681" s="17"/>
     </row>
-    <row r="682" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D682" s="32"/>
       <c r="F682" s="33"/>
       <c r="J682" s="17"/>
     </row>
-    <row r="683" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D683" s="32"/>
       <c r="F683" s="33"/>
       <c r="J683" s="17"/>
     </row>
-    <row r="684" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D684" s="32"/>
       <c r="F684" s="33"/>
       <c r="J684" s="17"/>
     </row>
-    <row r="685" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D685" s="32"/>
       <c r="F685" s="33"/>
       <c r="J685" s="17"/>
     </row>
-    <row r="686" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D686" s="32"/>
       <c r="F686" s="33"/>
       <c r="J686" s="17"/>
     </row>
-    <row r="687" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D687" s="32"/>
       <c r="F687" s="33"/>
       <c r="J687" s="17"/>
     </row>
-    <row r="688" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D688" s="32"/>
       <c r="F688" s="33"/>
       <c r="J688" s="17"/>
     </row>
-    <row r="689" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D689" s="32"/>
       <c r="F689" s="33"/>
       <c r="J689" s="17"/>
     </row>
-    <row r="690" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D690" s="32"/>
       <c r="F690" s="33"/>
       <c r="J690" s="17"/>
     </row>
-    <row r="691" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D691" s="32"/>
       <c r="F691" s="33"/>
       <c r="J691" s="17"/>
     </row>
-    <row r="692" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D692" s="32"/>
       <c r="F692" s="33"/>
       <c r="J692" s="17"/>
     </row>
-    <row r="693" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D693" s="32"/>
       <c r="F693" s="33"/>
       <c r="J693" s="17"/>
     </row>
-    <row r="694" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D694" s="32"/>
       <c r="F694" s="33"/>
       <c r="J694" s="17"/>
     </row>
-    <row r="695" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D695" s="32"/>
       <c r="F695" s="33"/>
       <c r="J695" s="17"/>
     </row>
-    <row r="696" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D696" s="32"/>
       <c r="F696" s="33"/>
       <c r="J696" s="17"/>
     </row>
-    <row r="697" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D697" s="32"/>
       <c r="F697" s="33"/>
       <c r="J697" s="17"/>
     </row>
-    <row r="698" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D698" s="32"/>
       <c r="F698" s="33"/>
       <c r="J698" s="17"/>
     </row>
-    <row r="699" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D699" s="32"/>
       <c r="F699" s="33"/>
       <c r="J699" s="17"/>
     </row>
-    <row r="700" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D700" s="32"/>
       <c r="F700" s="33"/>
       <c r="J700" s="17"/>
     </row>
-    <row r="701" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D701" s="32"/>
       <c r="F701" s="33"/>
       <c r="J701" s="17"/>
     </row>
-    <row r="702" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D702" s="32"/>
       <c r="F702" s="33"/>
       <c r="J702" s="17"/>
     </row>
-    <row r="703" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D703" s="32"/>
       <c r="F703" s="33"/>
       <c r="J703" s="17"/>
     </row>
-    <row r="704" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D704" s="32"/>
       <c r="F704" s="33"/>
       <c r="J704" s="17"/>
     </row>
-    <row r="705" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D705" s="32"/>
       <c r="F705" s="33"/>
       <c r="J705" s="17"/>
     </row>
-    <row r="706" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D706" s="32"/>
       <c r="F706" s="33"/>
       <c r="J706" s="17"/>
     </row>
-    <row r="707" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D707" s="32"/>
       <c r="F707" s="33"/>
       <c r="J707" s="17"/>
     </row>
-    <row r="708" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D708" s="32"/>
       <c r="F708" s="33"/>
       <c r="J708" s="17"/>
     </row>
-    <row r="709" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D709" s="32"/>
       <c r="F709" s="33"/>
       <c r="J709" s="17"/>
     </row>
-    <row r="710" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D710" s="32"/>
       <c r="F710" s="33"/>
       <c r="J710" s="17"/>
     </row>
-    <row r="711" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D711" s="32"/>
       <c r="F711" s="33"/>
       <c r="J711" s="17"/>
     </row>
-    <row r="712" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D712" s="32"/>
       <c r="F712" s="33"/>
       <c r="J712" s="17"/>
     </row>
-    <row r="713" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D713" s="32"/>
       <c r="F713" s="33"/>
       <c r="J713" s="17"/>
     </row>
-    <row r="714" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D714" s="32"/>
       <c r="F714" s="33"/>
       <c r="J714" s="17"/>
     </row>
-    <row r="715" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D715" s="32"/>
       <c r="F715" s="33"/>
       <c r="J715" s="17"/>
     </row>
-    <row r="716" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D716" s="32"/>
       <c r="F716" s="33"/>
       <c r="J716" s="17"/>
     </row>
-    <row r="717" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D717" s="32"/>
       <c r="F717" s="33"/>
       <c r="J717" s="17"/>
     </row>
-    <row r="718" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D718" s="32"/>
       <c r="F718" s="33"/>
       <c r="J718" s="17"/>
     </row>
-    <row r="719" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D719" s="32"/>
       <c r="F719" s="33"/>
       <c r="J719" s="17"/>
     </row>
-    <row r="720" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D720" s="32"/>
       <c r="F720" s="33"/>
       <c r="J720" s="17"/>
     </row>
-    <row r="721" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D721" s="32"/>
       <c r="F721" s="33"/>
       <c r="J721" s="17"/>
     </row>
-    <row r="722" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D722" s="32"/>
       <c r="F722" s="33"/>
       <c r="J722" s="17"/>
     </row>
-    <row r="723" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D723" s="32"/>
       <c r="F723" s="33"/>
       <c r="J723" s="17"/>
     </row>
-    <row r="724" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D724" s="32"/>
       <c r="F724" s="33"/>
       <c r="J724" s="17"/>
     </row>
-    <row r="725" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D725" s="32"/>
       <c r="F725" s="33"/>
       <c r="J725" s="17"/>
     </row>
-    <row r="726" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D726" s="32"/>
       <c r="F726" s="33"/>
       <c r="J726" s="17"/>
     </row>
-    <row r="727" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D727" s="32"/>
       <c r="F727" s="33"/>
       <c r="J727" s="17"/>
     </row>
-    <row r="728" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D728" s="32"/>
       <c r="F728" s="33"/>
       <c r="J728" s="17"/>
     </row>
-    <row r="729" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D729" s="32"/>
       <c r="F729" s="33"/>
       <c r="J729" s="17"/>
     </row>
-    <row r="730" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D730" s="32"/>
       <c r="F730" s="33"/>
       <c r="J730" s="17"/>
     </row>
-    <row r="731" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D731" s="32"/>
       <c r="F731" s="33"/>
       <c r="J731" s="17"/>
     </row>
-    <row r="732" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D732" s="32"/>
       <c r="F732" s="33"/>
       <c r="J732" s="17"/>
     </row>
-    <row r="733" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D733" s="32"/>
       <c r="F733" s="33"/>
       <c r="J733" s="17"/>
     </row>
-    <row r="734" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D734" s="32"/>
       <c r="F734" s="33"/>
       <c r="J734" s="17"/>
     </row>
-    <row r="735" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D735" s="32"/>
       <c r="F735" s="33"/>
       <c r="J735" s="17"/>
     </row>
-    <row r="736" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D736" s="32"/>
       <c r="F736" s="33"/>
       <c r="J736" s="17"/>
     </row>
-    <row r="737" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D737" s="32"/>
       <c r="F737" s="33"/>
       <c r="J737" s="17"/>
     </row>
-    <row r="738" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D738" s="32"/>
       <c r="F738" s="33"/>
       <c r="J738" s="17"/>
     </row>
-    <row r="739" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D739" s="32"/>
       <c r="F739" s="33"/>
       <c r="J739" s="17"/>
     </row>
-    <row r="740" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D740" s="32"/>
       <c r="F740" s="33"/>
       <c r="J740" s="17"/>
     </row>
-    <row r="741" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D741" s="32"/>
       <c r="F741" s="33"/>
       <c r="J741" s="17"/>
     </row>
-    <row r="742" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D742" s="32"/>
       <c r="F742" s="33"/>
       <c r="J742" s="17"/>
     </row>
-    <row r="743" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D743" s="32"/>
       <c r="F743" s="33"/>
       <c r="J743" s="17"/>
     </row>
-    <row r="744" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D744" s="32"/>
       <c r="F744" s="33"/>
       <c r="J744" s="17"/>
     </row>
-    <row r="745" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D745" s="32"/>
       <c r="F745" s="33"/>
       <c r="J745" s="17"/>
     </row>
-    <row r="746" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D746" s="32"/>
       <c r="F746" s="33"/>
       <c r="J746" s="17"/>
     </row>
-    <row r="747" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D747" s="32"/>
       <c r="F747" s="33"/>
       <c r="J747" s="17"/>
     </row>
-    <row r="748" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D748" s="32"/>
       <c r="F748" s="33"/>
       <c r="J748" s="17"/>
     </row>
-    <row r="749" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D749" s="32"/>
       <c r="F749" s="33"/>
       <c r="J749" s="17"/>
     </row>
-    <row r="750" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D750" s="32"/>
       <c r="F750" s="33"/>
       <c r="J750" s="17"/>
     </row>
-    <row r="751" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D751" s="32"/>
       <c r="F751" s="33"/>
       <c r="J751" s="17"/>
     </row>
-    <row r="752" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D752" s="32"/>
       <c r="F752" s="33"/>
       <c r="J752" s="17"/>
     </row>
-    <row r="753" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D753" s="32"/>
       <c r="F753" s="33"/>
       <c r="J753" s="17"/>
     </row>
-    <row r="754" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D754" s="32"/>
       <c r="F754" s="33"/>
       <c r="J754" s="17"/>
     </row>
-    <row r="755" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D755" s="32"/>
       <c r="F755" s="33"/>
       <c r="J755" s="17"/>
     </row>
-    <row r="756" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D756" s="32"/>
       <c r="F756" s="33"/>
       <c r="J756" s="17"/>
     </row>
-    <row r="757" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D757" s="32"/>
       <c r="F757" s="33"/>
       <c r="J757" s="17"/>
     </row>
-    <row r="758" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D758" s="32"/>
       <c r="F758" s="33"/>
       <c r="J758" s="17"/>
     </row>
-    <row r="759" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D759" s="32"/>
       <c r="F759" s="33"/>
       <c r="J759" s="17"/>
     </row>
-    <row r="760" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D760" s="32"/>
       <c r="F760" s="33"/>
       <c r="J760" s="17"/>
     </row>
-    <row r="761" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D761" s="32"/>
       <c r="F761" s="33"/>
       <c r="J761" s="17"/>
     </row>
-    <row r="762" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D762" s="32"/>
       <c r="F762" s="33"/>
       <c r="J762" s="17"/>
     </row>
-    <row r="763" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D763" s="32"/>
       <c r="F763" s="33"/>
       <c r="J763" s="17"/>
     </row>
-    <row r="764" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D764" s="32"/>
       <c r="F764" s="33"/>
       <c r="J764" s="17"/>
     </row>
-    <row r="765" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D765" s="32"/>
       <c r="F765" s="33"/>
       <c r="J765" s="17"/>
     </row>
-    <row r="766" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D766" s="32"/>
       <c r="F766" s="33"/>
       <c r="J766" s="17"/>
     </row>
-    <row r="767" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D767" s="32"/>
       <c r="F767" s="33"/>
       <c r="J767" s="17"/>
     </row>
-    <row r="768" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D768" s="32"/>
       <c r="F768" s="33"/>
       <c r="J768" s="17"/>
     </row>
-    <row r="769" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D769" s="32"/>
       <c r="F769" s="33"/>
       <c r="J769" s="17"/>
     </row>
-    <row r="770" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D770" s="32"/>
       <c r="F770" s="33"/>
       <c r="J770" s="17"/>
     </row>
-    <row r="771" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D771" s="32"/>
       <c r="F771" s="33"/>
       <c r="J771" s="17"/>
     </row>
-    <row r="772" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D772" s="32"/>
       <c r="F772" s="33"/>
       <c r="J772" s="17"/>
     </row>
-    <row r="773" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D773" s="32"/>
       <c r="F773" s="33"/>
       <c r="J773" s="17"/>
     </row>
-    <row r="774" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D774" s="32"/>
       <c r="F774" s="33"/>
       <c r="J774" s="17"/>
     </row>
-    <row r="775" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D775" s="32"/>
       <c r="F775" s="33"/>
       <c r="J775" s="17"/>
     </row>
-    <row r="776" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D776" s="32"/>
       <c r="F776" s="33"/>
       <c r="J776" s="17"/>
     </row>
-    <row r="777" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D777" s="32"/>
       <c r="F777" s="33"/>
       <c r="J777" s="17"/>
     </row>
-    <row r="778" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D778" s="32"/>
       <c r="F778" s="33"/>
       <c r="J778" s="17"/>
     </row>
-    <row r="779" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D779" s="32"/>
       <c r="F779" s="33"/>
       <c r="J779" s="17"/>
     </row>
-    <row r="780" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D780" s="32"/>
       <c r="F780" s="33"/>
       <c r="J780" s="17"/>
     </row>
-    <row r="781" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D781" s="32"/>
       <c r="F781" s="33"/>
       <c r="J781" s="17"/>
     </row>
-    <row r="782" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D782" s="32"/>
       <c r="F782" s="33"/>
       <c r="J782" s="17"/>
     </row>
-    <row r="783" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D783" s="32"/>
       <c r="F783" s="33"/>
       <c r="J783" s="17"/>
     </row>
-    <row r="784" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D784" s="32"/>
       <c r="F784" s="33"/>
       <c r="J784" s="17"/>
     </row>
-    <row r="785" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D785" s="32"/>
       <c r="F785" s="33"/>
       <c r="J785" s="17"/>
     </row>
-    <row r="786" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D786" s="32"/>
       <c r="F786" s="33"/>
       <c r="J786" s="17"/>
     </row>
-    <row r="787" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D787" s="32"/>
       <c r="F787" s="33"/>
       <c r="J787" s="17"/>
     </row>
-    <row r="788" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D788" s="32"/>
       <c r="F788" s="33"/>
       <c r="J788" s="17"/>
     </row>
-    <row r="789" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D789" s="32"/>
       <c r="F789" s="33"/>
       <c r="J789" s="17"/>
     </row>
-    <row r="790" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D790" s="32"/>
       <c r="F790" s="33"/>
       <c r="J790" s="17"/>
     </row>
-    <row r="791" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D791" s="32"/>
       <c r="F791" s="33"/>
       <c r="J791" s="17"/>
     </row>
-    <row r="792" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D792" s="32"/>
       <c r="F792" s="33"/>
       <c r="J792" s="17"/>
     </row>
-    <row r="793" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D793" s="32"/>
       <c r="F793" s="33"/>
       <c r="J793" s="17"/>
     </row>
-    <row r="794" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D794" s="32"/>
       <c r="F794" s="33"/>
       <c r="J794" s="17"/>
     </row>
-    <row r="795" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D795" s="32"/>
       <c r="F795" s="33"/>
       <c r="J795" s="17"/>
     </row>
-    <row r="796" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D796" s="32"/>
       <c r="F796" s="33"/>
       <c r="J796" s="17"/>
     </row>
-    <row r="797" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D797" s="32"/>
       <c r="F797" s="33"/>
       <c r="J797" s="17"/>
     </row>
-    <row r="798" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D798" s="32"/>
       <c r="F798" s="33"/>
       <c r="J798" s="17"/>
     </row>
-    <row r="799" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D799" s="32"/>
       <c r="F799" s="33"/>
       <c r="J799" s="17"/>
     </row>
-    <row r="800" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D800" s="32"/>
       <c r="F800" s="33"/>
       <c r="J800" s="17"/>
     </row>
-    <row r="801" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D801" s="32"/>
       <c r="F801" s="33"/>
       <c r="J801" s="17"/>
     </row>
-    <row r="802" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D802" s="32"/>
       <c r="F802" s="33"/>
       <c r="J802" s="17"/>
     </row>
-    <row r="803" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D803" s="32"/>
       <c r="F803" s="33"/>
       <c r="J803" s="17"/>
     </row>
-    <row r="804" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D804" s="32"/>
       <c r="F804" s="33"/>
       <c r="J804" s="17"/>
     </row>
-    <row r="805" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D805" s="32"/>
       <c r="F805" s="33"/>
       <c r="J805" s="17"/>
     </row>
-    <row r="806" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D806" s="32"/>
       <c r="F806" s="33"/>
       <c r="J806" s="17"/>
     </row>
-    <row r="807" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D807" s="32"/>
       <c r="F807" s="33"/>
       <c r="J807" s="17"/>
     </row>
-    <row r="808" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D808" s="32"/>
       <c r="F808" s="33"/>
       <c r="J808" s="17"/>
     </row>
-    <row r="809" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D809" s="32"/>
       <c r="F809" s="33"/>
       <c r="J809" s="17"/>
     </row>
-    <row r="810" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D810" s="32"/>
       <c r="F810" s="33"/>
       <c r="J810" s="17"/>
     </row>
-    <row r="811" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D811" s="32"/>
       <c r="F811" s="33"/>
       <c r="J811" s="17"/>
     </row>
-    <row r="812" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D812" s="32"/>
       <c r="F812" s="33"/>
       <c r="J812" s="17"/>
     </row>
-    <row r="813" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D813" s="32"/>
       <c r="F813" s="33"/>
       <c r="J813" s="17"/>
     </row>
-    <row r="814" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D814" s="32"/>
       <c r="F814" s="33"/>
       <c r="J814" s="17"/>
     </row>
-    <row r="815" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D815" s="32"/>
       <c r="F815" s="33"/>
       <c r="J815" s="17"/>
     </row>
-    <row r="816" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D816" s="32"/>
       <c r="F816" s="33"/>
       <c r="J816" s="17"/>
     </row>
-    <row r="817" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D817" s="32"/>
       <c r="F817" s="33"/>
       <c r="J817" s="17"/>
     </row>
-    <row r="818" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D818" s="32"/>
       <c r="F818" s="33"/>
       <c r="J818" s="17"/>
     </row>
-    <row r="819" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D819" s="32"/>
       <c r="F819" s="33"/>
       <c r="J819" s="17"/>
     </row>
-    <row r="820" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D820" s="32"/>
       <c r="F820" s="33"/>
       <c r="J820" s="17"/>
     </row>
-    <row r="821" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D821" s="32"/>
       <c r="F821" s="33"/>
       <c r="J821" s="17"/>
     </row>
-    <row r="822" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D822" s="32"/>
       <c r="F822" s="33"/>
       <c r="J822" s="17"/>
     </row>
-    <row r="823" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D823" s="32"/>
       <c r="F823" s="33"/>
       <c r="J823" s="17"/>
     </row>
-    <row r="824" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D824" s="32"/>
       <c r="F824" s="33"/>
       <c r="J824" s="17"/>
     </row>
-    <row r="825" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D825" s="32"/>
       <c r="F825" s="33"/>
       <c r="J825" s="17"/>
     </row>
-    <row r="826" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D826" s="32"/>
       <c r="F826" s="33"/>
       <c r="J826" s="17"/>
     </row>
-    <row r="827" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D827" s="32"/>
       <c r="F827" s="33"/>
       <c r="J827" s="17"/>
     </row>
-    <row r="828" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D828" s="32"/>
       <c r="F828" s="33"/>
       <c r="J828" s="17"/>
     </row>
-    <row r="829" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D829" s="32"/>
       <c r="F829" s="33"/>
       <c r="J829" s="17"/>
     </row>
-    <row r="830" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D830" s="32"/>
       <c r="F830" s="33"/>
       <c r="J830" s="17"/>
     </row>
-    <row r="831" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D831" s="32"/>
       <c r="F831" s="33"/>
       <c r="J831" s="17"/>
     </row>
-    <row r="832" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D832" s="32"/>
       <c r="F832" s="33"/>
       <c r="J832" s="17"/>
     </row>
-    <row r="833" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D833" s="32"/>
       <c r="F833" s="33"/>
       <c r="J833" s="17"/>
     </row>
-    <row r="834" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D834" s="32"/>
       <c r="F834" s="33"/>
       <c r="J834" s="17"/>
     </row>
-    <row r="835" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D835" s="32"/>
       <c r="F835" s="33"/>
       <c r="J835" s="17"/>
     </row>
-    <row r="836" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D836" s="32"/>
       <c r="F836" s="33"/>
       <c r="J836" s="17"/>
     </row>
-    <row r="837" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D837" s="32"/>
       <c r="F837" s="33"/>
       <c r="J837" s="17"/>
     </row>
-    <row r="838" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D838" s="32"/>
       <c r="F838" s="33"/>
       <c r="J838" s="17"/>
     </row>
-    <row r="839" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D839" s="32"/>
       <c r="F839" s="33"/>
       <c r="J839" s="17"/>
     </row>
-    <row r="840" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D840" s="32"/>
       <c r="F840" s="33"/>
       <c r="J840" s="17"/>
     </row>
-    <row r="841" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D841" s="32"/>
       <c r="F841" s="33"/>
       <c r="J841" s="17"/>
     </row>
-    <row r="842" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D842" s="32"/>
       <c r="F842" s="33"/>
       <c r="J842" s="17"/>
     </row>
-    <row r="843" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D843" s="32"/>
       <c r="F843" s="33"/>
       <c r="J843" s="17"/>
     </row>
-    <row r="844" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D844" s="32"/>
       <c r="F844" s="33"/>
       <c r="J844" s="17"/>
     </row>
-    <row r="845" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D845" s="32"/>
       <c r="F845" s="33"/>
       <c r="J845" s="17"/>
     </row>
-    <row r="846" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D846" s="32"/>
       <c r="F846" s="33"/>
       <c r="J846" s="17"/>
     </row>
-    <row r="847" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D847" s="32"/>
       <c r="F847" s="33"/>
       <c r="J847" s="17"/>
     </row>
-    <row r="848" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D848" s="32"/>
       <c r="F848" s="33"/>
       <c r="J848" s="17"/>
     </row>
-    <row r="849" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D849" s="32"/>
       <c r="F849" s="33"/>
       <c r="J849" s="17"/>
     </row>
-    <row r="850" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D850" s="32"/>
       <c r="F850" s="33"/>
       <c r="J850" s="17"/>
     </row>
-    <row r="851" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D851" s="32"/>
       <c r="F851" s="33"/>
       <c r="J851" s="17"/>
     </row>
-    <row r="852" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D852" s="32"/>
       <c r="F852" s="33"/>
       <c r="J852" s="17"/>
     </row>
-    <row r="853" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D853" s="32"/>
       <c r="F853" s="33"/>
       <c r="J853" s="17"/>
     </row>
-    <row r="854" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D854" s="32"/>
       <c r="F854" s="33"/>
       <c r="J854" s="17"/>
     </row>
-    <row r="855" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D855" s="32"/>
       <c r="F855" s="33"/>
       <c r="J855" s="17"/>
     </row>
-    <row r="856" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D856" s="32"/>
       <c r="F856" s="33"/>
       <c r="J856" s="17"/>
     </row>
-    <row r="857" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D857" s="32"/>
       <c r="F857" s="33"/>
       <c r="J857" s="17"/>
     </row>
-    <row r="858" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D858" s="32"/>
       <c r="F858" s="33"/>
       <c r="J858" s="17"/>
     </row>
-    <row r="859" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D859" s="32"/>
       <c r="F859" s="33"/>
       <c r="J859" s="17"/>
     </row>
-    <row r="860" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D860" s="32"/>
       <c r="F860" s="33"/>
       <c r="J860" s="17"/>
     </row>
-    <row r="861" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D861" s="32"/>
       <c r="F861" s="33"/>
       <c r="J861" s="17"/>
     </row>
-    <row r="862" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D862" s="32"/>
       <c r="F862" s="33"/>
       <c r="J862" s="17"/>
     </row>
-    <row r="863" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D863" s="32"/>
       <c r="F863" s="33"/>
       <c r="J863" s="17"/>
     </row>
-    <row r="864" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D864" s="32"/>
       <c r="F864" s="33"/>
       <c r="J864" s="17"/>
     </row>
-    <row r="865" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D865" s="32"/>
       <c r="F865" s="33"/>
       <c r="J865" s="17"/>
     </row>
-    <row r="866" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D866" s="32"/>
       <c r="F866" s="33"/>
       <c r="J866" s="17"/>
     </row>
-    <row r="867" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D867" s="32"/>
       <c r="F867" s="33"/>
       <c r="J867" s="17"/>
     </row>
-    <row r="868" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D868" s="32"/>
       <c r="F868" s="33"/>
       <c r="J868" s="17"/>
     </row>
-    <row r="869" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D869" s="32"/>
       <c r="F869" s="33"/>
       <c r="J869" s="17"/>
     </row>
-    <row r="870" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D870" s="32"/>
       <c r="F870" s="33"/>
       <c r="J870" s="17"/>
     </row>
-    <row r="871" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D871" s="32"/>
       <c r="F871" s="33"/>
       <c r="J871" s="17"/>
     </row>
-    <row r="872" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D872" s="32"/>
       <c r="F872" s="33"/>
       <c r="J872" s="17"/>
     </row>
-    <row r="873" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D873" s="32"/>
       <c r="F873" s="33"/>
       <c r="J873" s="17"/>
     </row>
-    <row r="874" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D874" s="32"/>
       <c r="F874" s="33"/>
       <c r="J874" s="17"/>
     </row>
-    <row r="875" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D875" s="32"/>
       <c r="F875" s="33"/>
       <c r="J875" s="17"/>
     </row>
-    <row r="876" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D876" s="32"/>
       <c r="F876" s="33"/>
       <c r="J876" s="17"/>
     </row>
-    <row r="877" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D877" s="32"/>
       <c r="F877" s="33"/>
       <c r="J877" s="17"/>
     </row>
-    <row r="878" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D878" s="32"/>
       <c r="F878" s="33"/>
       <c r="J878" s="17"/>
     </row>
-    <row r="879" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D879" s="32"/>
       <c r="F879" s="33"/>
       <c r="J879" s="17"/>
     </row>
-    <row r="880" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D880" s="32"/>
       <c r="F880" s="33"/>
       <c r="J880" s="17"/>
     </row>
-    <row r="881" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D881" s="32"/>
       <c r="F881" s="33"/>
       <c r="J881" s="17"/>
     </row>
-    <row r="882" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D882" s="32"/>
       <c r="F882" s="33"/>
       <c r="J882" s="17"/>
     </row>
-    <row r="883" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D883" s="32"/>
       <c r="F883" s="33"/>
       <c r="J883" s="17"/>
     </row>
-    <row r="884" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D884" s="32"/>
       <c r="F884" s="33"/>
       <c r="J884" s="17"/>
     </row>
-    <row r="885" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D885" s="32"/>
       <c r="F885" s="33"/>
       <c r="J885" s="17"/>
     </row>
-    <row r="886" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D886" s="32"/>
       <c r="F886" s="33"/>
       <c r="J886" s="17"/>
     </row>
-    <row r="887" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D887" s="32"/>
       <c r="F887" s="33"/>
       <c r="J887" s="17"/>
     </row>
-    <row r="888" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D888" s="32"/>
       <c r="F888" s="33"/>
       <c r="J888" s="17"/>
     </row>
-    <row r="889" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D889" s="32"/>
       <c r="F889" s="33"/>
       <c r="J889" s="17"/>
     </row>
-    <row r="890" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D890" s="32"/>
       <c r="F890" s="33"/>
       <c r="J890" s="17"/>
     </row>
-    <row r="891" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D891" s="32"/>
       <c r="F891" s="33"/>
       <c r="J891" s="17"/>
     </row>
-    <row r="892" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D892" s="32"/>
       <c r="F892" s="33"/>
       <c r="J892" s="17"/>
     </row>
-    <row r="893" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D893" s="32"/>
       <c r="F893" s="33"/>
       <c r="J893" s="17"/>
     </row>
-    <row r="894" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D894" s="32"/>
       <c r="F894" s="33"/>
       <c r="J894" s="17"/>
     </row>
-    <row r="895" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D895" s="32"/>
       <c r="F895" s="33"/>
       <c r="J895" s="17"/>
     </row>
-    <row r="896" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D896" s="32"/>
       <c r="F896" s="33"/>
       <c r="J896" s="17"/>
     </row>
-    <row r="897" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D897" s="32"/>
       <c r="F897" s="33"/>
       <c r="J897" s="17"/>
     </row>
-    <row r="898" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D898" s="32"/>
       <c r="F898" s="33"/>
       <c r="J898" s="17"/>
     </row>
-    <row r="899" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D899" s="32"/>
       <c r="F899" s="33"/>
       <c r="J899" s="17"/>
     </row>
-    <row r="900" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D900" s="32"/>
       <c r="F900" s="33"/>
       <c r="J900" s="17"/>
     </row>
-    <row r="901" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D901" s="32"/>
       <c r="F901" s="33"/>
       <c r="J901" s="17"/>
     </row>
-    <row r="902" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D902" s="32"/>
       <c r="F902" s="33"/>
       <c r="J902" s="17"/>
     </row>
-    <row r="903" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D903" s="32"/>
       <c r="F903" s="33"/>
       <c r="J903" s="17"/>
     </row>
-    <row r="904" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D904" s="32"/>
       <c r="F904" s="33"/>
       <c r="J904" s="17"/>
     </row>
-    <row r="905" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D905" s="32"/>
       <c r="F905" s="33"/>
       <c r="J905" s="17"/>
     </row>
-    <row r="906" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D906" s="32"/>
       <c r="F906" s="33"/>
       <c r="J906" s="17"/>
     </row>
-    <row r="907" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D907" s="32"/>
       <c r="F907" s="33"/>
       <c r="J907" s="17"/>
     </row>
-    <row r="908" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D908" s="32"/>
       <c r="F908" s="33"/>
       <c r="J908" s="17"/>
     </row>
-    <row r="909" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D909" s="32"/>
       <c r="F909" s="33"/>
       <c r="J909" s="17"/>
     </row>
-    <row r="910" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D910" s="32"/>
       <c r="F910" s="33"/>
       <c r="J910" s="17"/>
     </row>
-    <row r="911" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D911" s="32"/>
       <c r="F911" s="33"/>
       <c r="J911" s="17"/>
     </row>
-    <row r="912" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D912" s="32"/>
       <c r="F912" s="33"/>
       <c r="J912" s="17"/>
     </row>
-    <row r="913" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D913" s="32"/>
       <c r="F913" s="33"/>
       <c r="J913" s="17"/>
     </row>
-    <row r="914" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D914" s="32"/>
       <c r="F914" s="33"/>
       <c r="J914" s="17"/>
     </row>
-    <row r="915" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D915" s="32"/>
       <c r="F915" s="33"/>
       <c r="J915" s="17"/>
     </row>
-    <row r="916" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D916" s="32"/>
       <c r="F916" s="33"/>
       <c r="J916" s="17"/>
     </row>
-    <row r="917" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D917" s="32"/>
       <c r="F917" s="33"/>
       <c r="J917" s="17"/>
     </row>
-    <row r="918" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D918" s="32"/>
       <c r="F918" s="33"/>
       <c r="J918" s="17"/>
     </row>
-    <row r="919" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D919" s="32"/>
       <c r="F919" s="33"/>
       <c r="J919" s="17"/>
     </row>
-    <row r="920" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D920" s="32"/>
       <c r="F920" s="33"/>
       <c r="J920" s="17"/>
     </row>
-    <row r="921" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D921" s="32"/>
       <c r="F921" s="33"/>
       <c r="J921" s="17"/>
     </row>
-    <row r="922" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D922" s="32"/>
       <c r="F922" s="33"/>
       <c r="J922" s="17"/>
     </row>
-    <row r="923" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D923" s="32"/>
       <c r="F923" s="33"/>
       <c r="J923" s="17"/>
     </row>
-    <row r="924" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D924" s="32"/>
       <c r="F924" s="33"/>
       <c r="J924" s="17"/>
     </row>
-    <row r="925" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D925" s="32"/>
       <c r="F925" s="33"/>
       <c r="J925" s="17"/>
     </row>
-    <row r="926" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D926" s="32"/>
       <c r="F926" s="33"/>
       <c r="J926" s="17"/>
     </row>
-    <row r="927" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D927" s="32"/>
       <c r="F927" s="33"/>
       <c r="J927" s="17"/>
     </row>
-    <row r="928" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D928" s="32"/>
       <c r="F928" s="33"/>
       <c r="J928" s="17"/>
     </row>
-    <row r="929" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D929" s="32"/>
       <c r="F929" s="33"/>
       <c r="J929" s="17"/>
     </row>
-    <row r="930" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D930" s="32"/>
       <c r="F930" s="33"/>
       <c r="J930" s="17"/>
     </row>
-    <row r="931" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D931" s="32"/>
       <c r="F931" s="33"/>
       <c r="J931" s="17"/>
     </row>
-    <row r="932" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D932" s="32"/>
       <c r="F932" s="33"/>
       <c r="J932" s="17"/>
     </row>
-    <row r="933" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D933" s="32"/>
       <c r="F933" s="33"/>
       <c r="J933" s="17"/>
     </row>
-    <row r="934" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D934" s="32"/>
       <c r="F934" s="33"/>
       <c r="J934" s="17"/>
     </row>
-    <row r="935" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D935" s="32"/>
       <c r="F935" s="33"/>
       <c r="J935" s="17"/>
     </row>
-    <row r="936" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D936" s="32"/>
       <c r="F936" s="33"/>
       <c r="J936" s="17"/>
     </row>
-    <row r="937" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D937" s="32"/>
       <c r="F937" s="33"/>
       <c r="J937" s="17"/>
     </row>
-    <row r="938" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D938" s="32"/>
       <c r="F938" s="33"/>
       <c r="J938" s="17"/>
     </row>
-    <row r="939" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D939" s="32"/>
       <c r="F939" s="33"/>
       <c r="J939" s="17"/>
     </row>
-    <row r="940" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D940" s="32"/>
       <c r="F940" s="33"/>
       <c r="J940" s="17"/>
     </row>
-    <row r="941" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D941" s="32"/>
       <c r="F941" s="33"/>
       <c r="J941" s="17"/>
     </row>
-    <row r="942" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D942" s="32"/>
       <c r="F942" s="33"/>
       <c r="J942" s="17"/>
     </row>
-    <row r="943" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D943" s="32"/>
       <c r="F943" s="33"/>
       <c r="J943" s="17"/>
     </row>
-    <row r="944" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D944" s="32"/>
       <c r="F944" s="33"/>
       <c r="J944" s="17"/>
     </row>
-    <row r="945" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D945" s="32"/>
       <c r="F945" s="33"/>
       <c r="J945" s="17"/>
     </row>
-    <row r="946" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D946" s="32"/>
       <c r="F946" s="33"/>
       <c r="J946" s="17"/>
     </row>
-    <row r="947" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D947" s="32"/>
       <c r="F947" s="33"/>
       <c r="J947" s="17"/>
     </row>
-    <row r="948" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D948" s="32"/>
       <c r="F948" s="33"/>
       <c r="J948" s="17"/>
     </row>
-    <row r="949" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D949" s="32"/>
       <c r="F949" s="33"/>
       <c r="J949" s="17"/>
     </row>
-    <row r="950" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D950" s="32"/>
       <c r="F950" s="33"/>
       <c r="J950" s="17"/>
     </row>
-    <row r="951" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D951" s="32"/>
       <c r="F951" s="33"/>
       <c r="J951" s="17"/>
     </row>
-    <row r="952" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D952" s="32"/>
       <c r="F952" s="33"/>
       <c r="J952" s="17"/>
     </row>
-    <row r="953" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D953" s="32"/>
       <c r="F953" s="33"/>
       <c r="J953" s="17"/>
     </row>
-    <row r="954" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D954" s="32"/>
       <c r="F954" s="33"/>
       <c r="J954" s="17"/>
     </row>
-    <row r="955" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D955" s="32"/>
       <c r="F955" s="33"/>
       <c r="J955" s="17"/>
     </row>
-    <row r="956" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D956" s="32"/>
       <c r="F956" s="33"/>
       <c r="J956" s="17"/>
     </row>
-    <row r="957" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D957" s="32"/>
       <c r="F957" s="33"/>
       <c r="J957" s="17"/>
     </row>
-    <row r="958" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D958" s="32"/>
       <c r="F958" s="33"/>
       <c r="J958" s="17"/>
     </row>
-    <row r="959" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D959" s="32"/>
       <c r="F959" s="33"/>
       <c r="J959" s="17"/>
     </row>
-    <row r="960" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D960" s="32"/>
       <c r="F960" s="33"/>
       <c r="J960" s="17"/>
     </row>
-    <row r="961" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D961" s="32"/>
       <c r="F961" s="33"/>
       <c r="J961" s="17"/>
     </row>
-    <row r="962" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D962" s="32"/>
       <c r="F962" s="33"/>
       <c r="J962" s="17"/>
     </row>
-    <row r="963" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D963" s="32"/>
       <c r="F963" s="33"/>
       <c r="J963" s="17"/>
     </row>
-    <row r="964" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D964" s="32"/>
       <c r="F964" s="33"/>
       <c r="J964" s="17"/>
     </row>
-    <row r="965" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D965" s="32"/>
       <c r="F965" s="33"/>
       <c r="J965" s="17"/>
     </row>
-    <row r="966" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D966" s="32"/>
       <c r="F966" s="33"/>
       <c r="J966" s="17"/>
     </row>
-    <row r="967" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D967" s="32"/>
       <c r="F967" s="33"/>
       <c r="J967" s="17"/>
     </row>
-    <row r="968" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D968" s="32"/>
       <c r="F968" s="33"/>
       <c r="J968" s="17"/>
     </row>
-    <row r="969" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D969" s="32"/>
       <c r="F969" s="33"/>
       <c r="J969" s="17"/>
     </row>
-    <row r="970" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D970" s="32"/>
       <c r="F970" s="33"/>
       <c r="J970" s="17"/>
     </row>
-    <row r="971" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D971" s="32"/>
       <c r="F971" s="33"/>
       <c r="J971" s="17"/>
     </row>
-    <row r="972" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D972" s="32"/>
       <c r="F972" s="33"/>
       <c r="J972" s="17"/>
     </row>
-    <row r="973" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D973" s="32"/>
       <c r="F973" s="33"/>
       <c r="J973" s="17"/>
     </row>
-    <row r="974" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D974" s="32"/>
       <c r="F974" s="33"/>
       <c r="J974" s="17"/>
     </row>
-    <row r="975" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D975" s="32"/>
       <c r="F975" s="33"/>
       <c r="J975" s="17"/>
     </row>
-    <row r="976" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D976" s="32"/>
       <c r="F976" s="33"/>
       <c r="J976" s="17"/>
     </row>
-    <row r="977" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D977" s="32"/>
       <c r="F977" s="33"/>
       <c r="J977" s="17"/>
     </row>
-    <row r="978" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D978" s="32"/>
       <c r="F978" s="33"/>
       <c r="J978" s="17"/>
     </row>
-    <row r="979" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D979" s="32"/>
       <c r="F979" s="33"/>
       <c r="J979" s="17"/>
     </row>
-    <row r="980" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D980" s="32"/>
       <c r="F980" s="33"/>
       <c r="J980" s="17"/>
     </row>
-    <row r="981" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D981" s="32"/>
       <c r="F981" s="33"/>
       <c r="J981" s="17"/>
     </row>
-    <row r="982" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D982" s="32"/>
       <c r="F982" s="33"/>
       <c r="J982" s="17"/>
     </row>
-    <row r="983" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D983" s="32"/>
       <c r="F983" s="33"/>
       <c r="J983" s="17"/>
     </row>
-    <row r="984" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D984" s="32"/>
       <c r="F984" s="33"/>
       <c r="J984" s="17"/>
     </row>
-    <row r="985" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D985" s="32"/>
       <c r="F985" s="33"/>
       <c r="J985" s="17"/>
     </row>
-    <row r="986" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D986" s="32"/>
       <c r="F986" s="33"/>
       <c r="J986" s="17"/>
     </row>
-    <row r="987" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D987" s="32"/>
       <c r="F987" s="33"/>
       <c r="J987" s="17"/>
     </row>
-    <row r="988" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D988" s="32"/>
       <c r="F988" s="33"/>
       <c r="J988" s="17"/>
     </row>
-    <row r="989" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D989" s="32"/>
       <c r="F989" s="33"/>
       <c r="J989" s="17"/>
     </row>
-    <row r="990" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D990" s="32"/>
       <c r="F990" s="33"/>
       <c r="J990" s="17"/>
     </row>
-    <row r="991" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D991" s="32"/>
       <c r="F991" s="33"/>
       <c r="J991" s="17"/>
     </row>
-    <row r="992" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D992" s="32"/>
       <c r="F992" s="33"/>
       <c r="J992" s="17"/>
     </row>
-    <row r="993" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D993" s="32"/>
       <c r="F993" s="33"/>
       <c r="J993" s="17"/>
     </row>
-    <row r="994" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D994" s="32"/>
       <c r="F994" s="33"/>
       <c r="J994" s="17"/>
     </row>
-    <row r="995" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D995" s="32"/>
       <c r="F995" s="33"/>
       <c r="J995" s="17"/>
     </row>
-    <row r="996" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D996" s="32"/>
       <c r="F996" s="33"/>
       <c r="J996" s="17"/>
     </row>
-    <row r="997" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D997" s="32"/>
       <c r="F997" s="33"/>
       <c r="J997" s="17"/>
     </row>
-    <row r="998" spans="4:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="4:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D998" s="32"/>
       <c r="F998" s="33"/>
       <c r="J998" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I998" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Legendary"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I998">
       <sortCondition ref="B1:B998"/>
     </sortState>
